--- a/results/comparison_GoTPlainLLM/GoTPlainLLM_results.xlsx
+++ b/results/comparison_GoTPlainLLM/GoTPlainLLM_results.xlsx
@@ -728,43 +728,54 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adamax Optimizer Class
-=======================
-The Adamax optimizer is a variant of the Adam algorithm for training deep neural networks.
-Parameters
-----------
-    The learning rate used in the optimization process.
-    The first moment decay factor.
-    The second moment decay factor.
-    A small value used for numerical stability.
-Additional keyword arguments are passed to the optimizer.
-Returns
--------
-A configuration object that can be used to restore the optimizer's state.
-Functionality Analysis
---------------------
-The Adamax algorithm adapts the learning rate based on the magnitude of the gradient.
-The optimizer updates the model variables using the following formulas:
-m_t = beta_1 * m_{t-1} + (1 - beta_1) * g_t
-v_t = beta_2 * v_{t-1} + (1 - beta_2) * g_t^2
-where g_t is the gradient of the loss with respect to the model variables.
-The updated variables are then computed as:
-x_t = x_{t-1} - lr_t / sqrt(v_t)
-where x_t is the updated variable, and lr_t is the learning rate at iteration t.
-Edge Cases
------------
-    it may lead to an infinite loop in the optimization process.
-    it may result in unstable behavior or NaN (Not a Number) updates.
-Exceptions Analysis
--------------------
-The provided code snippet does not explicitly raise any exceptions for certain scenarios.
-However, some built-in TensorFlow exceptions might be raised indirectly if:
-    This could happen due to various reasons like invalid inputs or memory issues.
-    (e.g., out-of-memory errors), it may raise exceptions.
-Note
-----
-This implementation is based on the original Adamax algorithm described in Kingma &amp; Ba (2014).
-However, some modifications have been made to adapt it for use with TensorFlow.</t>
+          <t>The Adam optimizer is a stochastic gradient descent algorithm with a learning rate 
+    decay schedule and adaptive moment estimation for the first and second moments.
+    This class provides an implementation of the Adamax algorithm, which is a variation of 
+    the Adam optimizer. It maintains two independent first- and second-order moment estimates.
+    Parameters
+    ----------
+        The initial learning rate for the Adamax optimizer.
+        The exponential decay rate for the first-moment estimate.
+        The exponential decay rate for the second-moment estimate.
+        A small value added to the denominators during differentiation to prevent division by zero.
+        An optional name for the Adamax optimizer instance.
+    **kwargs
+        Additional keyword arguments. Currently unused in this class.
+    Returns
+    -------
+        Control flow operations that update the weights of a model based on its hyperparameters.
+    Functionality Analysis
+    ---------------------
+    The Adamax optimizer class is designed to optimize the parameters of a model by updating its weights 
+    to update the weights during training.
+    Parameters
+    ----------
+        The initial learning rate for the Adamax optimizer.
+        The exponential decay rate for the first-moment estimate.
+        The exponential decay rate for the second-moment estimate.
+        A small value added to the denominators during differentiation to prevent division by zero.
+        An optional name for the Adamax optimizer instance.
+    **kwargs
+        Additional keyword arguments. Currently unused in this class.
+    Raises
+    ------
+    ValueError : 
+        If beta_1 or beta_2 are not in the range [0, 1], or if epsilon is zero.
+    NotImplementedError :
+        If any of the methods are called with unsupported data types.
+    Notes
+    -----
+    The Adamax optimizer uses a variable learning rate that adapts based on the magnitude of the gradient 
+    and the first-order moment estimates. It maintains two independent moment estimates for the first- and 
+    second-order moments, allowing it to adapt efficiently to changing conditions.
+    Example:
+    --------
+    # Create an instance of the Adamax optimizer
+    adam = tf.keras.optimizers.Adamax(learning_rate=0.001)
+    # Initialize model parameters
+    model = tf.keras.models.Sequential([...])
+    # Compile the model with the Adamax optimizer
+    model.compile(optimizer=adam, loss='mean_squared_error')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -882,22 +893,20 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>"""
-        Initialize AgglomerationTransform instance.
+        Initialize an AgglomerationTransform object.
         Parameters
         ----------
-            Function to apply along the labels axis. Can be np.mean, np.sum, or any other function that aggregates values.
-        Attributes
-        ----------
-            Labels assigned to each sample.
+            The number of clusters to form as well as the number of centroids to generate.
         """
         """
-        Perform the transformation on input data X.
+        Perform agglomerative clustering on data.
+        This transformer groups input features by their class labels and applies a pooling function to each group.
         Parameters
         ----------
-            Input data.
+            The input data to be transformed.
         Returns
         -------
-            Transformed data. Shape depends on the pooling function used.
+            The transformed data.
         """
         check_is_fitted(self)
         X = self._validate_data(X, reset=False)
@@ -1116,25 +1125,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>This class defines an axis-specific AveragePooling1D layer, inheriting from Pooling1D.
-Parameters
-----------
-    The size of the pooling window.
-    The stride(s) of the pooling operation. If None, defaults to 1.
-    The type of padding to use.
-    The format of data.
-Returns
--------
-None
-Functionality
--------------
-This class applies a 2D average pooling operation, using the provided parameters. It is typically used in deep learning models for reducing spatial dimensions without loss of information.
-Exceptions
------------
-No explicit error handling or exceptions are raised in this code snippet. However, potential errors related to incompatible types of arguments passed to the superclass constructor (due to type checking) are handled implicitly by Keras's internal mechanisms and type checking.
-Note
------
-This class is designed for axis-specific operation (axis=1). The parameters provided allow users to easily create instances with common or custom settings.</t>
+          <t>Class for defining an average pooling operation in Keras.
+    This class inherits from `Pooling1D` and overrides its constructor using partial application. It uses the `backend.pool2d`
+    function with `pool_mode='avg'`, which performs average pooling.
+    Parameters
+    ----------
+        The size of the pooling window.
+        The stride to use for the pooling operation. If None, it will default to a common value (usually 1).
+        The padding mode used by the pooling operation. Can be either 'valid' or 'same'.
+        The data format in which the input tensor is stored. Can be either 'channels_first' or 'channels_last'.
+    Notes
+    -----
+    This class does not have any direct return value. Instead, it initializes an instance of the `Pooling1D` class with the specified parameters.
+    Raises
+    ------
+    Examples
+    --------
+    &gt;&gt;&gt; from keras.layers import AveragePooling1D
+    &gt;&gt;&gt; avg_pool = AveragePooling1D(pool_size=3, strides=2)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1346,24 +1354,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>This class implements an average pooling layer that reduces spatial dimensions by taking the mean value over small regions (defined by pool_size).
+          <t>A subclass of Pooling2D for average pooling operations.
     Parameters
     ----------
-        A tuple representing the size of the pooling window. The default value is (2, 2), which means that the average is computed over a square region of size 2x2 pixels.
-        An optional parameter to specify the stride of the pooling window. If not provided, it defaults to (1, 1).
-        A string indicating the type of padding to use when performing the average pooling. The default value is 'valid', which means that no padding is applied.
-        An optional parameter to specify the format of the data. If not provided, it defaults to None.
+        The size of the pooling window. Default is (2, 2).
+        The stride of the pooling operation. If not provided, it defaults to None.
+        The padding mode used during the pooling operation. Default is 'valid'.
+        The data format of the input and output tensors. If not provided, it defaults to None.
     Returns
     -------
-    Tensor
-        A tensor representing the average-pooled output of the input data.
+    None
     Notes
     -----
-    The `AveragePooling2D` class inherits from `Pooling2D`, which uses the `nn.avg_pool` function. This implies that the returned value will be a tensor with the same shape as the input but reduced spatial dimensions.
-    Examples
-    --------
-    &gt;&gt;&gt; avg_pool = AveragePooling2D(pool_size=(2, 2), strides=None, padding='valid', data_format=None)
-    &gt;&gt;&gt; output = avg_pool(input_data)</t>
+    This class extends the Pooling2D class from Keras to customize its behavior for average pooling operations.
+    Algorithmic Complexity
+    ----------------------
+    The time complexity is O(N \* M), where N and M are the spatial dimensions of the input tensor.
+    The space complexity is O(1) since it only uses a constant amount of memory to store the parameters.
+    Exceptions
+    ----------
+    None
+    See Also
+    --------</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1499,28 +1511,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A subclass of `Pooling3D` in Keras, extending the functionality to include average pooling for 3D tensors.
+          <t>Averages the input data over a three-dimensional region.
     Parameters
     ----------
-        Specifies the size of the pooling window. A larger value will result in a more extensive reduction of spatial dimensions.
-        Specifies the stride size for each dimension of the input data. If not provided, it defaults to None.
-        Specifies the type of padding used during pooling. 'valid' padding means the output will have the same size as the input. 'same' padding means the output will be the same size as the input, but may cause division by zero in some cases.
-        Specifies the layout of the input and output tensors. 'channels_last' means that channels are last in the tensor layout, while 'channels_first' means they are first.
+        The size of the average pooling window in each dimension.
+        The stride to use for the average pooling operation. If not provided, it defaults to pool_size.
+        The type of padding to use when performing the average pooling operation.
+        The data format to use for this layer. If not provided, it defaults to None.
     Returns
     -------
-    None
+    instance of AveragePooling3D
+        An instance of `AveragePooling3D` with its attributes populated from the provided parameters.
+    Raises
+    ------
     Notes
     -----
-    This class calls the parent class's `__init__` method with the provided arguments and uses Keras's `avg_pool3d` function as its underlying pooling algorithm.
-    The class itself does not have any explicit return types defined. However, when an instance is created, it will be initialized with a set of attributes (e.g., pool_size, strides, padding) that define the characteristics of the pooling operation.
-    Raises
-    ------
-    See Also
-    --------
-    Examples
-    --------
-    &gt;&gt;&gt; pool = AveragePooling3D(pool_size=(2, 2, 2), strides=1)
-    &gt;&gt;&gt; pool(x)  # Apply average pooling to the input tensor x</t>
+    This class inherits from `Pooling3D` and implements an average pooling layer for 3D tensors.
+    It uses the standard mathematical formula for 3D pooling to calculate the average value across each pool.
+    The logic within this function is straightforward, calling the parent class's initializer with the specified parameters.
+    However, there are potential exceptions that may be raised during execution due to invalid input parameters or unexpected states.
+    Best Practices:</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -2513,273 +2523,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>max_iter=100, n_init=1, init_params='kmeans', warm_start=False,
-                 mean_precision_prior=None, weights_prior=None,
-                 weight_concentration_prior_type='dirichlet_process',
-                 covariances_prior=None):
-        """
-        Initialize the BayesianGaussianMixture object.
-        Parameters
-        ----------
-            The number of components in the mixture model.
-            The type of covariance matrix.
-            The tolerance for convergence.
-            The maximum number of iterations.
-            The number of times to initialize the model with different random seeds.
-            The initialization method for the parameters.
-            Whether to re-use the previous fit results as the initial values.
-            The prior expectation of the precision parameter.
-            The prior expectation of the weight parameter.
-            The type of prior distribution for the weight concentration parameter.
-            The prior covariance matrix.
-        Attributes
-        ----------
-            The component weights.
-            The precision parameters.
-            The component means.
-            The Cholesky decompositions of the precision matrices.
-            The component covariance matrices.
-            The degrees of freedom for each component.
-        Methods
-        -------
-        fit(X)
-            Fit the model to the data.
-        predict_proba(X)
-            Return the predictive distribution of the component labels.
-        sample(n_samples)
-            Generate random samples from the mixture model.
-        lower_bound()
-            Compute the lower bound on the log-likelihood.
-        _initialize(X, resp)
-            Initialize the parameters for a single iteration.
-        _estimate_gaussian_parameters(X, resp, reg_covar, covariance_type)
-            Estimate the Gaussian parameters for a component.
-        _estimate_wishart_full(nk, xk, sk)
-            Compute the Wishart distribution for the full covariance matrix.
-        _estimate_wishart_tied(nk, xk, sk)
-            Compute the Wishart distribution for the tied covariance matrix.
-        _estimate_wishart_diag(nk, xk, sk)
-            Compute the Wishart distribution for the diagonal covariance matrix.
-        _estimate_wishart_spherical(nk, xk, sk)
-            Compute the Wishart distribution for the spherical covariance matrix.
-        """
-        """
-        Fit the model to the data.
-        Parameters
-        ----------
-            The input data.
-        Returns
-        -------
-        self
-        Notes
-        -----
-        This method initializes the model with a single component from the Dirichlet process,
-        and then iteratively updates the parameters using the Expectation-Maximization algorithm.
-        """
-        n_samples, _ = X.shape
-        # Initialize the parameters
-        # Perform the EM iterations
-            log_resp = self._estimate_log_resp(X)
-        """
-        Return the predictive distribution of the component labels.
-        Parameters
-        ----------
-            The input data.
-        Returns
-        -------
-            The predictive distribution of the component labels.
-        """
-        _, n_components = self.means_.shape
-        # Compute the Gaussian parameters for each component
-        nk, xk, sk = _estimate_gaussian_parameters(X, np.zeros((n_samples, n_components)), self.reg_covar, self.covariance_type)
-        # Compute the log-likelihood of each component
-        log_resp = np.log(np.exp(self._estimate_log_weights(nk)) + 1e-32) + \
-                   np.sum(_estimate_gaussian_prob(X, xk, sk, self.means_, self.precisions_cholesky_, self.covariance_type), axis=1)
-        """
-        Generate random samples from the mixture model.
-        Parameters
-        ----------
-            The number of samples to generate.
-        Returns
-        -------
-            The generated samples.
-        """
-        _, _ = self.means_.shape
-        # Compute the Gaussian parameters for each component
-        nk, xk, sk = _estimate_gaussian_parameters(np.zeros((n_samples, n_components)), np.ones(n_samples) / n_components, self.reg_covar, self.covariance_type)
-        # Generate random samples from the mixture model
-        X = np.empty((n_samples, n_features))
-            k = np.argmax(np.random.dirichlet(self.weights_))
-            X[i] = np.random.multivariate_normal(xk[k], np.dot(self.precisions_cholesky_[k], self.precisions_cholesky_[k].T))
-        """
-        Compute the lower bound on the log-likelihood.
-        Returns
-        -------
-            The lower bound on the log-likelihood.
-        """
-        n_samples, _ = self.means_.shape
-        # Compute the Gaussian parameters for each component
-        nk, xk, sk = _estimate_gaussian_parameters(np.zeros((n_samples, n_components)), np.ones(n_samples) / n_components, self.reg_covar, self.covariance_type)
-        # Compute the log-likelihood of each component
-        log_resp = np.log(np.exp(self._estimate_log_weights(nk)) + 1e-32) + \
-                   np.sum(_estimate_gaussian_prob(X, xk, sk, self.means_, self.precisions_cholesky_, self.covariance_type), axis=1)
-        # Compute the lower bound on the log-likelihood
-        lb = -np.sum(np.exp(log_resp) * log_resp) + \
-             np.log(_log_wishart_norm(self.degrees_of_freedom_, _compute_log_det_cholesky(self.precisions_cholesky_, self.covariance_type, n_features), n_features)) - \
-             0.5 * n_features * np.sum(np.log(self.mean_precision_))
-        """
-        Initialize the parameters for a single iteration.
-        Parameters
-        ----------
-            The input data.
-            The responsibility of each component for each sample.
-        Returns
-        -------
-        self
-        Notes
-        -----
-        This method initializes the model with a single component from the Dirichlet process,
-        and then iteratively updates the parameters using the Expectation-Maximization algorithm.
-        """
-        n_samples, _ = X.shape
-        # Initialize the parameters
-        """
-        Estimate the Gaussian parameters for a component.
-        Parameters
-        ----------
-            The input data.
-            The responsibility of each component for each sample.
-        Returns
-        -------
-            The number of samples assigned to each component.
-            The mean of the Gaussian distribution.
-            The precision of the Gaussian distribution.
-        """
-        n_samples, _ = X.shape
-        # Compute the log-likelihood of each component
-        log_resp = np.log(np.exp(self._estimate_log_weights(nk)) + 1e-32) + \
-                   np.sum(_estimate_gaussian_prob(X, xk, sk, self.means_, self.precisions_cholesky_, self.covariance_type), axis=1)
-        # Compute the responsibility of each component for each sample
-        """
-        Compute the Wishart distribution for the full covariance matrix.
-        Parameters
-        ----------
-            The number of samples assigned to each component.
-            The mean of the Gaussian distribution.
-            The precision of the Gaussian distribution.
-        Returns
-        -------
-            The Wishart distribution for the full covariance matrix.
-        """
-        n_components, _ = self.means_.shape
-        # Compute the Cholesky decomposition of the covariance matrix
-        chol_cov = np.linalg.cholesky(self.covariances_)
-        # Compute the Wishart distribution for each component
-        wk = np.zeros((n_components, n_features))
-            wk[i] = _log_wishart(sk[i], xk[i], chol_cov[i])
-        """
-        Compute the Wishart distribution for the tied covariance matrix.
-        Parameters
-        ----------
-            The number of samples assigned to each component.
-            The mean of the Gaussian distribution.
-            The precision of the Gaussian distribution.
-        Returns
-        -------
-            The Wishart distribution for the tied covariance matrix.
-        """
-        n_components, _ = self.means_.shape
-        # Compute the Cholesky decomposition of the covariance matrix
-        chol_cov = np.linalg.cholesky(self.covariances_)
-        # Compute the Wishart distribution for each component
-        wk = np.zeros((n_components, n_features))
-            wk[i] = _log_wishart(sk[i], xk[i], chol_cov)
-        """
-        Compute the Wishart distribution for the diagonal covariance matrix.
-        Parameters
-        ----------
-            The number of samples assigned to each component.
-            The mean of the Gaussian distribution.
-            The precision of the Gaussian distribution.
-        Returns
-        -------
-            The Wishart distribution for the diagonal covariance matrix.
-        """
-        n_components, _ = self.means_.shape
-        # Compute the Cholesky decomposition of the covariance matrix
-        chol_cov = np.linalg.cholesky(self.covariances_)
-        # Compute the Wishart distribution for each component
-        wk = np.zeros((n_components, n_features))
-            wk[i] = _log_wishart(sk[i], xk[i], chol_cov[i])
-        """
-        Compute the Wishart distribution for the spherical covariance matrix.
-        Parameters
-        ----------
-            The number of samples assigned to each component.
-            The mean of the Gaussian distribution.
-            The precision of the Gaussian distribution.
-        Returns
-        -------
-            The Wishart distribution for the spherical covariance matrix.
-        """
-        n_components, _ = self.means_.shape
-        # Compute the Cholesky decomposition of the covariance matrix
-        chol_cov = np.linalg.cholesky(self.covariances_)
-        # Compute the Wishart distribution for each component
-        wk = np.zeros((n_components, n_features))
-            wk[i] = _log_wishart(sk[i], xk[i], chol_cov[i])
-        """
-        Compute the lower bound on the log-likelihood.
-        Returns
-        -------
-            The lower bound on the log-likelihood.
-        """
-        n_samples, _ = self.means_.shape
-        # Compute the Gaussian parameters for each component
-        nk, xk, sk = _estimate_gaussian_parameters(np.zeros((n_samples, n_components)), np.ones(n_samples) / n_components, self.reg_covar, self.covariance_type)
-        # Compute the log-likelihood of each component
-        log_resp = np.log(np.exp(self._estimate_log_weights(nk)) + 1e-32) + \
-                   np.sum(_estimate_gaussian_prob(X, xk, sk, self.means_, self.precisions_cholesky_, self.covariance_type), axis=1)
-        # Compute the lower bound on the log-likelihood
-        lb = -np.sum(np.exp(log_resp) * log_resp) + \
-             np.log(_log_wishart(self.degrees_of_freedom_, _compute_log_det_cholesky(self.precisions_cholesky_, self.covariance_type, n_features), n_features)) - \
-             0.5 * n_features * np.sum(np.log(self.mean_precision_))
-        """
-        Estimate the weights for each component.
-        Parameters
-        ----------
-            The number of samples assigned to each component.
-        Returns
-        -------
-        self
-        """
-        n_components = self.means_.shape[0]
-        # Compute the weights for each component
-        """
-        Estimate the means for each component.
-        Parameters
-        ----------
-            The mean of the Gaussian distribution.
-            The precision of the Gaussian distribution.
-        Returns
-        -------
-        self
-        """
-        n_components = self.means_.shape[0]
-        # Compute the means for each component
-        """
-        Estimate the precisions for each component.
-        Parameters
-        ----------
-            The number of samples assigned to each component.
-            The mean of the Gaussian distribution.
-            The precision of the Gaussian distribution.
-        Returns
-        -------
-        self
-        """
-        n_components = self.means_.shape[0]
-        # Compute the precisions for each component</t>
+          <t>Gaussian Mixture Model (GMM) Implementation
+This implementation provides a Gaussian Mixture Model (GMM) that can be used for clustering and density estimation.
+Attributes:
+Methods:
+Parameter Access:</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -3312,20 +3060,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Convolutional Neural Network (CNN) Layer.
-**Analysis of Parameters**
-The `Conv` class defines a Convolutional Neural Network (CNN) layer, which performs a convolution operation on an input tensor. The parameters and types used in this class are as follows:
-**Argument Validation**
-The layer checks for the following conditions:
-*   The number of filters must be evenly divisible by the number of groups.
-*   The kernel size cannot contain zeros.
-*   The stride sizes cannot contain zeros.
-*   Causal padding is only supported for `Conv1D` and `SeparableConv1D`.
-**Behavior**
-The layer performs a convolution operation on an input tensor, with the specified parameters. If `use_bias` is `True`, bias terms are added to the output. The activation function (if specified) is applied after the convolution operation.
-**Methods**
-**Attributes**
-**Class Variables**</t>
+          <t>docstring = """
+A Convolutional Layer.
+The Convolution2D and Convolution1D layers in Keras are not differentiable
+in their current implementation, because of the use of a fixed step size,
+which is not compatible with the gradient descent algorithm used in backpropagation.
+This is why we must redefine these classes for our specific task.
+A Convolutional Layer is defined as follows:
+    Attributes:
+            (rank = 1) or a 3D convolution (rank = 2)
+            of the input during convolution operation. This can be used to reduce
+            the size of the feature maps.
+            (or not) around its edges before applying the filter. 'valid' means no
+            padding is applied, while 'same' means each spatial dimension will have
+            zero-padding added to the sides so that the output has the same shape as
+            the input.
+            the x and y dimensions of the filter weights. This can be used for image
+            convolution with a larger receptive field by setting this value higher than 1.
+            before concatenating them together into the output. This is useful for
+            handling input channels that don't need to interact with one another.
+            in the kernel to have unit length.
+            in the bias vector to have unit length.
+    Methods:
+            only called after calling 'build(input_shape)' and when inputs are passed
+            as argument. If no inputs are passed, 'build(input_shape)' must have been
+            previously called with a shape that does not contain None values.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -3541,25 +3300,34 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Here is the final docstring:
-"""
-This class defines a Conv1D layer, which applies a one-dimensional convolution operation to input data.
-Parameters
-----------
-### Keyword Arguments:
-### Data Types:
-- Most parameters have default values, which means they can be omitted when calling the `__init__` method.
-- The `activation` parameter has a type hint, indicating it should be an instance of a class (e.g., `nn.ReLU`, `nn.Sigmoid`, etc.).
-- Some parameters have list/tuple types, such as `kernel_size` and `strides`, which suggests that they can accept multiple values.
-### Default Values:
-- Many parameters have default values, making it easier to use the `__init__` method with minimal arguments.
-- The default value for `activation` is an empty string (`''`), indicating that no activation function will be applied by default.
-- The default value for `use_bias` is `True`, indicating that a bias term will be added in front of the activation function.
-Returns
--------
-The instance of the parent class (`Conv`) with updated arguments.
-Raises
-------</t>
+          <t>A one-dimensional convolutional layer.
+    The `Conv1D` class implements a one-dimensional convolutional layer. This layer takes in input data, applies filters to it, and produces output data.
+    Parameters
+    ----------
+        The number of filters in the convolutional layer.
+        The size of the kernel (or filter) used for convolution.
+        The stride size of the convolution operation.
+        The padding mode used for the convolution operation.
+        The data format used for the convolution operation.
+        The dilation rate used for the kernel size calculation.
+        The number of groups in the group convolution operation.
+        The activation function used after the convolutional layer. If `None`, no activation is applied.
+        Whether or not to use bias terms in the convolutional layer.
+        The initializer for the kernel weights.
+        The initializer for the bias term.
+        The regularization applied to the kernel weights.
+        The regularization applied to the bias terms.
+        The regularization applied to the output of the activation function.
+        The constraint applied to the kernel weights.
+        The constraint applied to the bias terms.
+    Returns
+    -------
+    None
+    Notes
+    -----
+    This layer follows the standard structure and usage patterns found in other Keras-based convolutional layers. It is designed to be used as part of a larger neural network architecture.
+    Exceptions
+    ----------</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -3955,17 +3723,53 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Convolutional 1-Dimensional Transpose (Conv1DTranspose) layer.
-This layer is a transposed convolution operation, which is equivalent to 
-a convolution operation with the input and output axes swapped. The layer 
-is often used as part of upsampling or deconvolution operations in neural networks.
-    Can be 'valid' or 'same'. Defaults to 'valid'.
-The transformed output of the Conv1DTranspose layer, which is a tensor with shape `(batch_size, out_length, filters)`.
-*   `ValueError` if the input shape does not have exactly three dimensions.
-*   `ValueError` if the channel dimension of the input is not defined (i.e., its value is None).
-*   `ValueError` if the stride length is less than or equal to the output padding value when using output padding.
-This layer performs a 1-Dimensional Transpose convolution operation on the input data, 
-which applies the transposed convolution to each channel of the input data and produces an output with the same number of channels as the input but with a different spatial arrangement.</t>
+          <t>Here is the final docstring following PEP 257 standards:
+```python
+    """
+    The `Conv1DTranspose` class implements a 1-D transposed convolutional neural network layer in Keras.
+    This layer is a variant of the standard `Conv1D` layer, where the operation is applied in reverse order. It is often used for upsampling or interpolation.
+    Parameters
+    ----------
+        The number of filters to use in the convolutional layer.
+        A tuple or list containing the dimensions of the kernel (filter).
+        A single integer or a tuple/list with an integer value. Specifies the stride for each spatial dimension. Defaults to 1.
+        The padding mode to use, either 'valid' or 'same'. Defaults to 'valid'.
+        An integer or tuple/list containing an integer value representing the amount of padding applied after convolution.
+        If set, it must be compatible with the strides and kernel_size. Defaults to None.
+        A string representing the data format, either 'channels_first' or 'channels_last'. Defaults to None.
+        A tuple/list containing two integers specifying the dilation rate for each spatial dimension.
+        This parameter is used to specify the spacing between kernel elements. Defaults to 1.
+        An activation function to apply after convolutional transpose operation. Defaults to None.
+        Whether or not to use bias in the convolutional transpose operation. Defaults to True.
+        Initializer for the kernel of the convolutional transpose operation. Defaults to 'glorot_uniform'.
+        Initializer for the bias of the convolutional transpose operation. Defaults to 'zeros'.
+    Constraints
+    ----------
+    The number of filters must be a positive integer.
+    The output padding value must be compatible with the strides and kernel_size.
+    Returns
+    -------
+        The output of the convolutional transpose operation.
+        If `activation` is specified, the return value will be a tensor with the same shape as the output of the activation function.
+    Note
+    ----
+    This layer raises an exception if the input shape has an invalid rank (not 3) or if the channel dimension of the inputs is undefined.
+    Methods
+    -------
+    build(self, input_shape)
+        Initializes the layer by adding weights (kernel and bias) to the model.
+    call(self, inputs)
+        Performs the actual transposed convolutional operation using the `nn_ops.conv1d_transpose` function from TensorFlow.
+    compute_output_shape(self, input_shape)
+        Computes the shape of the output tensor based on the input shape and layer parameters.
+    Attributes
+    ----------
+        The weights for the kernel of the convolutional transpose operation.
+        The weights for the bias of the convolutional transpose operation.
+        Whether or not the layer has been built and is ready to be called.
+    Note
+    ----
+    This layer uses TensorFlow's `nn_ops` module for performing the transposed convolutional operation, making it more efficient and scalable.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -4217,23 +4021,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Here is the synthesized Python docstring:
+          <t>Here is the Python docstring that follows PEP 257 standards:
 """
-A Conv2D class that inherits from the parent `Conv` class.
-The `__init__` method of this class has a wide range of parameters to customize its behavior. Many of these parameters have default values, making it easy to create a basic convolutional layer with minimal configuration.
+Conv2D Class
+-------------
+The Conv2D class defines a two-dimensional convolutional layer with learnable filters.
 Parameters
 ----------
+**Required Parameters**
+**Optional Parameters**
 Returns
 -------
-An instance of the `Conv2D` class with the specified parameters.
-Return Type
------------
-The return type is a class instance, specifically an instance of `Conv2D`.
-Note
-----
-This class inherits from the parent `Conv` class and delegates some initialization tasks to it. The constructor method (`__init__`) modifies the parent class's attributes using assignment operations.
+This class does not explicitly return any value, as it is designed to initialize an instance of the Conv2D class and set its attributes.
 Raises
-------</t>
+------
+If any errors occur during initialization or execution, they will be propagated up the call stack and handled accordingly. Some potential exceptions include:
+*   Invalid input arguments (e.g., non-integer values for kernel_size or strides).
+*   Out-of-range values (e.g., negative values for dilation_rate).
+*   Unsupported data formats.
+*   Resource exhaustion.
+Example
+-------
+```python
+conv2d_layer = Conv2D(32, (3, 3), activation='relu')
+```
+This example initializes a Conv2D layer with 32 filters, kernel size of (3, 3), and applies the ReLU activation function to the output.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -4710,17 +4522,18 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Convolutional 2D Transpose Layer (Deconvolution or Upsampling)
-This layer is used for transposed convolution or upsampling in neural networks.
+          <t>Convolutional Transpose Layer
+This layer performs a convolutional transpose operation on input data.
 Parameters
 ----------
-Returns
--------
-An instance of the Conv2DTranspose class.
-Examples
---------
-```python
-conv2d_transpose = tf.keras.layers.Conv2DTranspose(32, (3, 3), strides=(1, 1))</t>
+Output Shape
+------------
+*   Same as input shape, except number of channels is equal to filters.
+Input Shape
+------------
+*   4D tensor with shape (batch_size, rows, cols, channels).
+Raises
+------</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -4952,13 +4765,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The Conv3D class is a subclass of Conv that represents a 3D convolutional layer.
-    Parameters:
-    Returns:
-        An initialized instance of Conv3D.
-    Raises:
-    Note:
-        This class inherits from Conv and represents a 3D convolutional layer. It applies a 3D convolutional transformation to input data, computing dot products between the kernel and each slice of the input, and combines the results using the specified activation function.</t>
+          <t>Initialize the Conv3D layer.
+Args:
+Raises:
+Returns:
+    None</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -5452,31 +5263,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Here is the final docstring:
-"""
-Conv3DTranspose class.
-The Conv3DTranspose class is a transposed convolutional neural network layer, similar to a deconvolutional layer but with different stride and padding rules.
+          <t>A Keras implementation of a 3D transposed convolutional layer.
+This class represents a 3D transposed convolutional layer, which is a key component in various deep learning architectures. The deconvolutional operation effectively transposes the convolutional operation to produce a higher-dimensional output.
 Parameters
 ----------
+        Number of filters to use.
+        Size of the kernel to use for the convolutional transpose operation.
+        Stride to apply during the convolutional transpose operation. Defaults to 1 in each dimension.
+        Type of padding to use. Defaults to 'valid'.
+        Output padding size for the convolutional transpose operation. If set, it must match the length of strides.
+        Data format convention to use. Defaults to 'channels_last'.
+        Dilation rate for the convolutional transpose operation.
+        Activation function to apply after the convolutional transpose operation. Defaults to None.
+        Whether to use bias terms in the convolutional transpose operation. Defaults to True.
 Returns
 -------
-The class `Conv3DTranspose` returns various values based on its methods:
+*   A tensor representing the output of the deconvolutional operation.
 Raises
-------
-The class `Conv3DTranspose` raises an error if:
-*   The input shape is not compatible with the layer's architecture.
-*   The kernel size, stride, or padding are invalid.
-Note
-----
-This class inherits from the `Conv3D` class and adds additional functionality for transposed convolution operations. It uses the same architecture as the `Conv3D` class but with different stride and padding rules.
-Example
--------
-```python
-# Create a transposed convolutional layer
-conv_transpose = Conv3DTranspose(32, kernel_size=(3, 3, 3), strides=(2, 2, 2))
-# Apply the layer to an input tensor
-input_tensor = tf.ones((1, 10, 10, 10, 16))
-output_tensor = conv_transpose(input_tensor)</t>
+-----</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -5622,42 +5426,30 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A Keras layer that applies a one-dimensional crop to the input data.
-**Parameters**
----------------
-**Returns**
-----------
-*   The `compute_output_shape` method returns a tensor shape object with three integers (batch size, length, spatial dimensions).
-*   The `call` method returns the cropped input tensor.
-*   The `get_config` method returns a dictionary containing the layer's configuration, including the cropping parameters.
-**Yield**
---------
-This code does not explicitly use the concept of "yield" in a functional programming sense. However, the `call` method can be seen as yielding a new value (the cropped input tensor) after processing the input.
-**Functionality**
-----------------
-The provided code is a Keras Layer implementation for 1D cropping. It applies one-dimensional cropping to the input data based on the specified parameters.
-*   If the cropping parameter is set to a single integer value, the entire channel axis is removed.
-*   If the cropping parameter is set to two integers values or a tuple of two integers values, both channel and height axes are cropped.
-The layer returns a new tensor with shape `(batch_size, length, depth)`, where `length` is the remaining height after cropping.
-**Exception Handling**
----------------------
-**Suggestions**
---------------
-*   Add explicit checks for edge cases mentioned above (e.g., batch dimension size 1 or cropping parameter `[0]`) to ensure consistent behavior.
-*   Use more descriptive variable names and comments to improve code readability.
-*   Consider adding additional validation for the input tensor shape and cropping parameters to prevent potential errors.
-**Notes**
--------
-The `Cropping1D` layer is designed to be used in Keras-based neural networks. It applies a one-dimensional crop to the input data based on the specified parameters.
-**API Documentation**
--------------------
-**Example Use Cases**
---------------------
-*   Applying a 1D crop to the input data using the `Cropping1D` layer:
-    ```python
-cropping_layer = Cropping1D(cropping=(10, 5))
-input_data = Input(shape=(100,))
-output_data = cropping_layer(input_data)</t>
+          <t>A Keras layer that performs 1D cropping on input data.
+    Parameters
+    ----------
+        The cropping offsets in the first dimension. Default is (1, 1).
+        Additional keyword arguments to pass to the layer's constructor.
+    Returns
+    -------
+        A tensor with the input data cropped along the last dimension.
+        A dictionary containing the configuration of the layer.
+    Notes
+    -----
+    The `cropping` parameter is validated by the `conv_utils.normalize_tuple`
+    function, which ensures that the input is a tuple of two integers and within
+    valid bounds. If `cropping[1] == 0`, the cropping operation simply returns
+    the first slice of the input tensor starting from `self.cropping[0]`.
+    Otherwise, it returns the second slice of the input tensor up to but not
+    including `-self.cropping[1]`.
+    The layer's configuration is stored in a dictionary and can be retrieved using
+    the `get_config` method.
+    Warning
+    -------
+    This layer assumes that the input data has at least 3 dimensions. If the
+    input shape has no third dimension (i.e., `input_shape[1] is None`), the
+    `compute_output_shape` method returns a shape with an undefined length (`None`).</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -5896,18 +5688,78 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Applies a cropping operation to the input.
-    The layer takes a tuple of two integers or a tuple of two tuples of two integers as input. 
-    It crops symmetrically from all sides if an integer is provided, and asymmetrically if a tuple of two tuples is given.
-    Parameters
-    ----------
-        Crops the input data in various ways:
-        Specify data format of input shape. One of channels_last (default) or channels_first. The default is 'channels_last'.
-    Returns
-    -------
-        A tensor with the same type and number of dimensions as the input but with the specified cropping applied.
-    Raises
-    ------</t>
+          <t>The Cropping2D class is a layer that crops an input tensor by removing values from both ends of each dimension.
+Parameters
+----------
+    The cropping specification (amount to crop from top, bottom, left and right).
+    It can be specified as a single integer value, a symmetric tuple of two integers (for both height and width cropping),
+    or an asymmetric tuple of two tuples of two integers ((top_crop, bottom_crop), (left_crop, right_crop)).
+    The format of input data.
+    If 'channels_first' is specified, the channels are arranged in the first position.
+    Default value is None.
+**kwargs
+    Additional keyword arguments passed to the parent class (`super(Cropping2D, self).__init__(**kwargs)`).
+    The expected input shape of the layer.
+    The number of dimensions in the input data. Defaults to 4.
+Returns
+-------
+A tensor with the specified cropping applied.
+Raises
+-----
+ValueError
+    If the `cropping` argument has an incorrect number of elements (i.e., not exactly 2).
+    Or if the `cropping` argument has an incorrect data type or format.
+    Or if the input shape is not compatible with the output shape determined by `compute_output_shape`.
+Example Use Cases
+-----------------
+```python
+# Create a Cropping2D layer with symmetric cropping (50% from top and left)
+layer = Cropping2D(cropping=((0.5, 0.5), (0.5, 0.5)))
+# Define an input tensor
+input_tensor = tf.random.normal((1, 10, 10, 3))
+# Apply the cropping layer to the input tensor
+cropped_tensor = layer(input_tensor)
+print(cropped_tensor.shape)
+```
+This example creates a `Cropping2D` layer with symmetric cropping (50% from top and left) and applies it to an input tensor.
+The output will be a cropped tensor with shape `[1, 5, 5, 3]`.
+"""
+""" 
+The Cropping2D class is a layer that crops an input tensor by removing values from both ends of each dimension.
+Parameters
+----------
+    The cropping specification (amount to crop from top, bottom, left and right).
+    It can be specified as a single integer value, a symmetric tuple of two integers (for both height and width cropping),
+    or an asymmetric tuple of two tuples of two integers ((top_crop, bottom_crop), (left_crop, right_crop)).
+    The format of input data.
+    If 'channels_first' is specified, the channels are arranged in the first position.
+    Default value is None.
+**kwargs
+    Additional keyword arguments passed to the parent class (`super(Cropping2D, self).__init__(**kwargs)`).
+    The expected input shape of the layer.
+    The number of dimensions in the input data. Defaults to 4.
+Returns
+-------
+A tensor with the specified cropping applied.
+Raises
+-----
+ValueError
+    If the `cropping` argument has an incorrect number of elements (i.e., not exactly 2).
+    Or if the `cropping` argument has an incorrect data type or format.
+    Or if the input shape is not compatible with the output shape determined by `compute_output_shape`.
+Example Use Cases
+-----------------
+```python
+# Create a Cropping2D layer with symmetric cropping (50% from top and left)
+layer = Cropping2D(cropping=((0.5, 0.5), (0.5, 0.5)))
+# Define an input tensor
+input_tensor = tf.random.normal((1, 10, 10, 3))
+# Apply the cropping layer to the input tensor
+cropped_tensor = layer(input_tensor)
+print(cropped_tensor.shape)
+```
+This example creates a `Cropping2D` layer with symmetric cropping (50% from top and left) and applies it to an input tensor.
+The output will be a cropped tensor with shape `[1, 5, 5, 3]`.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -6273,47 +6125,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Here is the final Python docstring:
-"""
-Cropping3D Layer
-================
-A Keras layer for 3D cropping.
+          <t>The Cropping3D layer reduces spatial dimensions of input data.
+It can be used to crop an input tensor at a specified spatial location, 
+or to remove pixels from the edges of the image.
 Parameters
 ----------
-    Crop size in each dimension (x, y, z). Can be either an integer for symmetric cropping or a tuple of three integers/tuples of two integers.
-    Data format for input/output tensors. Defaults to 'channels_last'. Possible values are 'channels_first' and 'channels_last'.
-    Additional keyword arguments passed to the parent class (`Layer`).
+    The cropping operation to apply. If `cropping` is an integer,
+    it applies a symmetric padding with the specified size.
+    Otherwise, it should be a tuple of three tuples: 
+    ((left, right), (top, bottom), (front, back)). This allows for
+    independent control over each axis.
+    The format of input data. It can be either "channels_first" or "channels_last".
+    Additional keyword arguments to pass to the Layer constructor.
 Returns
 -------
-compute_output_shape(input_shape) -&gt; TensorShape:
-    Compute the output shape of the layer based on the input shape and cropping dimensions.
-call(inputs) -&gt; tensor or list of error messages:
-    Apply the cropping operation to the input tensor. If the input is invalid, return a tuple of error messages.
-get_config() -&gt; dict:
-    Return a dictionary containing the configuration of the layer.
+    The output tensor after cropping.
 Raises
 ------
-ValueError : 
-    Invalid `cropping` type or length.
-UnsupportedError : 
-    Unknown data format.
-TypeError : 
-    Invalid input shape or dimensions.
-Functionality
--------------
-The provided code is a Keras layer implementation for 3D cropping. The functionality of this class can be summarized as follows:
-1.  **Initialization**: The `__init__` method initializes the layer with the following parameters:
-Examples
---------
-```python
-# Create a Cropping3D layer with symmetric cropping
-layer = Cropping3D(cropping=(10, 20, 30), data_format='channels_last')
-# Apply the cropping operation to an input tensor
-input_tensor = np.random.rand(1, 32, 32, 32, 3)
-output_tensor = layer.call(input_tensor)
-# Get the configuration of the layer
-config = layer.get_config()
-print(config)</t>
+ValueError
+    If `cropping` is not an integer, tuple, or list of tuples.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -6739,82 +6569,52 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>"""
-    This class implements the DBSCAN (Density-Based Spatial Clustering of Applications with Noise) algorithm.
-    Parameters
-    ----------
-        The maximum distance between two points within which both are considered part of the same cluster.
-        The minimum number of samples required for a neighborhood to be considered dense enough to form a separate cluster.
-        The distance metric used to measure the distance between data points. It can be one of 'euclidean', 'manhattan', or 'cosine'. For precomputed distances, it uses the 'precomputed' option.
-        The algorithm used for nearest neighbor search. Options include 'auto', 'ball_tree', 'kd_tree', and 'brute'.
-        The size of each leaf node in the ball tree used for nearest neighbor search.
-    Attributes
-    ----------
-        A label array where each element represents the cluster that a data point belongs to. Negative numbers indicate noise.
-        An array containing all points in their respective clusters.
-    Methods
-    -------
-    fit(X, y=None, sample_weight=None):
-        Fit the model to the given data and compute the labels for each point.
-    fit_predict(X, y=None, sample_weight=None):
-        Compute the labels for each point in the dataset using the fitted model.
-    Raises
-    ------
-    See Also
-    --------
-    sklearn.neighbors.NearestNeighbors
-    sklearn.cluster.AgglomerativeClustering
-    """
-        """
-        Initialize the DBSCAN model.
-        Parameters
-        ----------
-            The maximum distance between two points within which both are considered part of the same cluster.
-            The minimum number of samples required for a neighborhood to be considered dense enough to form a separate cluster.
-            The distance metric used to measure the distance between data points. It can be one of 'euclidean', 'manhattan', or 'cosine'. For precomputed distances, it uses the 'precomputed' option.
-            The algorithm used for nearest neighbor search. Options include 'auto', 'ball_tree', 'kd_tree', and 'brute'.
-            The size of each leaf node in the ball tree used for nearest neighbor search.
-        """
-    @_fit_context(prefer_skip_nested_validation=False)
-        """
-        Fit the model to the given data and compute the labels for each point.
-        Parameters
-        ----------
-            The input dataset.
-            This parameter is not used in this implementation.
-            The weights assigned to each data point. If None, all points have equal weight.
-        Returns
-        -------
-        self
-        Raises
-        ------
-        """
-        X = self._validate_data(X, accept_sparse='csr')
-            sample_weight = _check_sample_weight(sample_weight, X)
-            X = X.copy()
-                warnings.simplefilter('ignore', sparse.SparseEfficiencyWarning)
-                X.setdiag(X.diagonal())
-        neighbors_model = NearestNeighbors(radius=self.eps, algorithm=self.algorithm, leaf_size=self.leaf_size, metric=self.metric, metric_params=self.metric_params, p=self.p, n_jobs=self.n_jobs)
-        neighbors_model.fit(X)
-        neighborhoods = neighbors_model.radius_neighbors(X, return_distance=False)
-            n_neighbors = np.array([len(neighbors) for neighbors in neighborhoods])
-        else:
-            n_neighbors = np.array([np.sum(sample_weight[neighbors]) for neighbors in neighborhoods])
-        labels = np.full(X.shape[0], -1, dtype=np.intp)
-        core_samples = np.asarray(n_neighbors &gt;= self.min_samples, dtype=np.uint8)
-        dbscan_inner(core_samples, neighborhoods, labels)
-        else:
-        """
-        Compute the labels for each point in the dataset using the fitted model.
-        Parameters
-        ----------
-            The input dataset.
-            This parameter is not used in this implementation.
-            The weights assigned to each data point. If None, all points have equal weight.
-        Returns
-        -------
-            A label array where each element represents the cluster that a data point belongs to. Negative numbers indicate noise.
-        """</t>
+          <t>DBSCAN (Density-Based Spatial Clustering of Applications with Noise) is a density-based clustering algorithm that groups data points into clusters based on their density and proximity to each other.
+Parameters
+----------
+    The maximum distance between points for them to be considered neighbors.
+    The minimum number of samples required to form a dense region in the data.
+    The distance metric to use for calculating distances between points. Can be one of the pre-defined metrics or a custom function.
+    Additional parameters for the chosen distance metric.
+    The method used to find the nearest neighbors for each point in the data.
+    The maximum size of the leaf node in the ball tree or KD tree data structure used for nearest neighbor search.
+    The power to which distances are raised when calculating the distance between points.
+Attributes
+----------
+    The maximum distance between points for them to be considered neighbors.
+    The minimum number of samples required to form a dense region in the data.
+    The distance metric used for calculating distances between points.
+    Additional parameters for the chosen distance metric.
+    The method used to find the nearest neighbors for each point in the data.
+    The maximum size of the leaf node in the ball tree or KD tree data structure used for nearest neighbor search.
+Methods
+-------
+fit(X, y=None, sample_weight=None)
+    Fits the model to the training data X and returns an instance of itself.
+fit_predict(X, y=None, sample_weight=None)
+    Similar to fit(), but only returns the labels without fitting the model.
+_validate_data(X, accept_sparse='csr')
+    Validates the input data X.
+Returns
+-------
+An instance of the DBSCAN class with updated internal state after fitting the model.
+A numpy array of labels predicted by the model.
+Notes
+-----
+The DBSCAN algorithm is density-based and can handle noisy or empty datasets. It is robust against highly correlated features and outliers.
+References
+----------
+For more information on the DBSCAN algorithm, see [1]_.
+           However, it does not inherit from `BaseEstimator` as it does not implement any estimation or prediction methods.
+Examples
+--------
+&gt;&gt;&gt; from sklearn.cluster import DBSCAN
+&gt;&gt;&gt; X = [[1, 2], [3, 4]]
+&gt;&gt;&gt; db = DBSCAN(eps=0.5)
+&gt;&gt;&gt; labels = db.fit_predict(X)
+See Also
+--------
+"""</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -7191,36 +6991,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The `DepthwiseConv2D` class implements a depthwise convolutional neural network (CNN) layer.
-    Parameters
-    ----------
-        The size of the depthwise convolution kernel.
-        The stride of the depthwise convolution. Default is (1, 1).
-        The padding type. Default is 'valid'.
-        A multiplier for the depthwise convolution. Default is 1.
-        The data format of input shape. Default is None.
-        The dilation rate of the depthwise convolution. Default is (1, 1).
-        The activation function to apply after the depthwise convolution.
-        Whether to use bias in the depthwise convolution. Default is True.
-        The initializer for the depthwise kernel. Default is 'glorot_uniform'.
-        The initializer for the bias term. Default is 'zeros'.
-        The regularizer for the depthwise kernel. Default is None.
-        The regularizer for the bias term. Default is None.
-        The activity regularization function. Default is None.
-        The constraint for the depthwise kernel. Default is None.
-        The constraint for the bias term. Default is None.
-    Returns
-    -------
-        The output of the depthwise convolution or the result after applying the activation function.
-    Notes
-    -----
-    This class implements a depthwise convolution followed by an optional activation function.
-    If `use_bias` is True, the output of the convolution is added to a bias term.
-    The activation function is applied if specified.
-    Raises
-    ------
-    See Also
-    --------</t>
+          <t>Depthwise Convolutional Layer.
+This layer implements the depthwise convolution operation, which applies a filter to each channel of the input independently.
+**Parameters**
+The `__init__` method takes in several parameters:
+The `build` method is called after the layer is initialized. It:
+    - Checks if the input shape has a valid rank (4) and defines the channel axis.
+    - Computes the depthwise kernel's shape based on the input shape and kernel size.
+    - Initializes the depthwise kernel using the provided initializer.
+    - If bias is used, initializes the bias using the provided initializer.
+**Returns**
+The `call` method returns the output of the depthwise convolution operation:
+    - It first performs the depthwise convolution using the `backend.depthwise_conv2d` function.
+    - If bias is used, adds the bias to the output using `backend.bias_add`.
+    - If an activation function is specified, applies it to the output.
+The `compute_output_shape` method computes the output shape based on the input shape, kernel size, strides, and dilation rate. It returns the output shape as a tuple.
+**Exception Analysis**
+This class raises a `ValueError` if the input shape has fewer than 4 dimensions or if the channel dimension of the input shape is not defined.
+**Functionality Analysis**
+The provided code is a part of the Keras API, specifically implementing a Depthwise Convolutional Layer for 2D convolutional neural networks.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -7551,27 +7340,43 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>The Embedding layer in Keras is a fundamental component of various neural network architectures, particularly those involving sequence data such as natural language processing tasks. This documentation aims to provide an exhaustive overview of its functionality and parameters.
-**Parameters**
-This class has several parameters that are essential for configuring the embedding layer:
-Some observations and suggestions:
-*   The `embeddings_initializer`, `embeddings_regularizer`, and `activity_regularizer` parameters are all strings, which can be confusing. It would be better to use a dictionary-like structure or an Enum class to represent these parameters.
-*   The `input_length` parameter is optional but has default value of `(None,)`. This could lead to unexpected behavior if the user doesn't specify it explicitly. Consider making it mandatory for backwards compatibility.
-*   The default values for some parameters, such as `embeddings_initializer`, may not be suitable for all use cases. It's essential to document these defaults clearly and provide alternative settings when necessary.
-**Returns**
-The `Embedding` class in Keras returns an output tensor representing the embedded input:
-2.  **Return value**: The return value is computed using the `call` method, which performs the following steps:
-    *   It first checks if the input data has a valid integer type and casts it to `'int32'` if necessary.
-    *   Then, it looks up the embedding values in the `embeddings` tensor using the `embedding_ops.embedding_lookup_v2` function.
-    *   Finally, it returns the resulting output tensor with shape `(batch_size, sequence_length, embedding_dim)`.
-**Edge cases**
-**Exceptions**
-**Functionality**
-The provided code defines a custom Keras layer called `Embedding` that is used for embedding lookup in neural networks:
-*   The `__init__` method takes several parameters:
-*   The code checks that both `input_dim` and `output_dim` are positive integers.
-**Return value for errors**
-This class provides a powerful tool for embedding sequence data, which is crucial in many applications such as natural language processing tasks. Its extensive set of parameters allows users to customize its behavior according to their specific needs.</t>
+          <t>Here is the generated docstring:
+```
+    """
+    The `Embedding` layer embeds integers into dense vectors of fixed size.
+    `(input_dim, output_dim)` with input_dim being the number of unique tokens in
+    the vocabulary and output_dim being embedding dimensionality. The weights are
+    As described above, this layer can be used to perform any of the following:
+          the embedding matrix at position `(i, j)`, where `j` is the embedding dimension,
+          will be masked to zero. This can also be set after initialization of the layer
+          when calling it (`call()` method).
+        - Support for masking: masks can typically be passed in here via the argument:
+                  matrix. So, if you pass a 1D vector as mask into an embedding layer with an input shape
+                  that has more than one dimension (e.g. `(batch_size, sequence_length)`), then the
+                  mask will be broadcasted to match the input shape.
+    Parameters
+    ----------
+        Number of features in the input.
+        Dimensionality of the dense vectors for each element `i` in `x`.
+        The initializer for the embeddings matrix. It can be a string literal (e.g.,
+        `'uniform'`, `'normal'`) or a callable function (e.g.,
+        `tf.keras.initializers.he_normal`). Default is `'uniform'`.
+        Regularization applied to the weights of the embedding layer.
+        Regularization applied to the output of the layer.
+        Constraint function for the embeddings matrix. It can be a string literal (e.g.,
+        `'none'`) or a callable function (e.g., `tf.keras.constraints.id`).
+        Whether to mask zeros in the input embedding matrix.
+        The length of the input sequence for this layer. It can be a single positive integer
+        or a sequence of integers representing different lengths.
+    Returns
+    -------
+    Notes
+    -----
+    This implementation supports masking by default.
+    Example
+    -------
+    ```python
+layer = Embedding(1000, 64)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -8963,21 +8768,20 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Flask is a lightweight WSGI web application framework written in Python.
-It provides some features such as:
-*   Request and response objects
-*   Dispatching HTTP requests to functions or classes
-*   Support for Jinja2 templating engine
-*   Support for internationalization (i18n) and localization (L10n)
-*   Development server
-Flask is classified as a microframework because it does not require particular tools or libraries. It has no dependencies except for the Werkzeug toolkit and Jinja2 template engine.
-Some features are available only when certain extensions are enabled. The following extensions are included in the Flask package:
-Flask is considered production-ready.
-You can obtain more information about an application instance by using the :meth:`__repr__` method:
-    &gt;&gt;&gt; app = Flask(__name__)
-    &gt;&gt;&gt; print(repr(app))
-"""
-"""The Flask class. You should not use this directly, but instead subclass it to create your own application objects.</t>
+          <t>Flask is a micro web framework written in Python.
+It allows you to build web applications with ease and is often used for smaller projects or prototyping larger applications.
+The core features of Flask include:
+*   A flexible request and response object
+*   Support for different types of databases (e.g. SQLite, PostgreSQL)
+*   Support for file uploads and downloads
+*   Support for session management
+*   A built-in debugger
+Flask also includes several extensions that can be used to add additional functionality to your application.
+Examples:
+    app = Flask(__name__)
+    @app.route('/')
+        app.run(debug=True)
+"""</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -9511,45 +9315,94 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Applies a function to each element of the input array or pandas DataFrame.
-    Parameters
-    ----------
-        The function to be applied to each element. If None, it defaults to an identity function.
-        The function that inverts the effect of `func`. If None and `check_inverse=True`, a ValueError is raised.
-        Whether to perform input validation on the input data. If True, this transformer will check if the
-        input data are valid according to the rules defined in the corresponding method.
-        Whether to accept sparse input arrays or not. Only relevant for `transform` and `fit_transform`.
-        Whether to check if the provided functions are inverse of each other when using a function with an
-        inverse function. If True, this will raise a ValueError if the functions do not have exactly the same
-        output as their input.
-        The strategy to use for generating the names of the transformed features.
-        Additional keyword arguments to pass to the `func` function.
-        Additional keyword arguments to pass to the `inverse_func` function.
-    Attributes
-    ----------
-        The function that will be applied to each element of the input data. This attribute is available after
-        calling `fit`.
-        The function that inverts the effect of `func`. This attribute is available after calling `fit`.
-    Methods
-    -------
-    fit(X, y=None)
-        Trains this transformer with the given input data.
-    transform(X)
-        Applies the function to each element of the input array or pandas DataFrame.
-    inverse_transform(X)
-        Applies the inverse function to each element of the input array or pandas DataFrame.
-    Notes
-    -----
-    This transformer is used for applying arbitrary functions on the features of a dataset. It can be applied
-    both to pandas DataFrames and NumPy arrays.
-    Examples
-    --------
-    &gt;&gt;&gt; from sklearn.datasets import load_iris
-    &gt;&gt;&gt; from sklearn.preprocessing import FunctionTransformer
-    &gt;&gt;&gt; iris = load_iris()
-    &gt;&gt;&gt; X = pd.DataFrame(iris.data, columns=iris.feature_names)
-    &gt;&gt;&gt; transformer = FunctionTransformer(np.log)
-    &gt;&gt;&gt; X_log = transformer.fit_transform(X)</t>
+          <t>"""Initialize FunctionTransformer object.
+        Parameters
+        ----------
+            Function to apply along axis. If None, does nothing.
+            Inverse function of `func`.
+            Whether to validate input data.
+            Whether to handle sparse matrices as input.
+            Whether to check if the provided functions are inverse of each other.
+            Feature names to be output after transformation.
+            Keyword arguments to be passed to the function.
+        Returns
+        -------
+        FunctionTransformer object itself.
+        """
+        """Check input data.
+        Parameters
+        ----------
+            Input data.
+            Whether to reset internal state.
+        Returns
+        -------
+        Checked input data.
+        """
+        """Check if provided functions are inverse of each other.
+        Parameters
+        ----------
+            Input data.
+        Raises
+        ------
+        ValueError
+            If the provided functions are not strictly inverse of each other.
+        UserWarning
+            If the user wants to proceed regardless.
+        """
+    @_fit_context(prefer_skip_nested_validation=True)
+        """Fit the transformer.
+        Parameters
+        ----------
+            Input data.
+            Ignored.
+        Returns
+        -------
+        FunctionTransformer object itself.
+        """
+        """Apply function to input data.
+        Parameters
+        ----------
+            Input data.
+        Returns
+        -------
+        Transformed data.
+        """
+        """Inverse transformation of the function.
+        Parameters
+        ----------
+            Input data.
+        Returns
+        -------
+        Inverse transformed data.
+        """
+        """Get feature names for output.
+        Parameters
+        ----------
+            Input feature names.
+        Returns
+        -------
+        Feature names for output.
+        """
+        """Apply function to input data.
+        Parameters
+        ----------
+            Input data.
+            Function to apply. If None, uses identity function.
+            Keyword arguments to be passed to the function.
+        Returns
+        -------
+        Transformed data.
+        """
+        """Check if object is fitted.
+        Returns
+        -------
+        True if object is fitted, False otherwise.
+        """
+        """Additional tags for transformer.
+        Returns
+        -------
+        Dictionary of additional tags.
+        """</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -10127,77 +9980,50 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GaussianMixture class for unsupervised machine learning.
-This class implements a Gaussian mixture model, which is a probabilistic
-mixture of different normal distributions. It inherits from BaseMixture and
-provides additional parameters and methods for parameter estimation and model
-evaluation.
+          <t>A Gaussian Mixture Model class.
 Parameters
 ----------
-    The number of components in the Gaussian mixture.
-    The type of covariance structure to use. See Notes below for details.
-    The tolerance for convergence of the EM algorithm.
-    A regularization factor for the covariance matrix.
-    The maximum number of iterations of the EM algorithm.
-    The number of times to run the EM algorithm with different initializations.
-    The initialization method for the parameters. See Notes below for details.
-    Initial values for the weights of the components. If None, they will be
-    initialized randomly.
-    Initial values for the means of the components. If None, they will be
-    initialized randomly.
-    Initial values for the precisions of the components. If None, they will be
-    initialized as identity matrices.
-    The random seed used to initialize the parameters and generate random
-    initializations.
-    Whether to use warm start mode. See Notes below for details.
-    Verbosity level of the EM algorithm.
-    The interval between verbose messages.
-Notes
+The parameters of this class are analyzed below:
+Mandatory Parameters
+--------------------
+Constrained Parameters
+----------------------
+Constraints
+------------
+The following constraints are applied to the parameters:
+*   `covariance_type` must be one of 'full', 'tied', 'diag', or 'spherical'.
+*   `weights_init`, `means_init`, and `precisions_init` must be array-like.
+Attributes
+----------
+This class has the following attributes:
+Methods
+--------
+This class has the following methods:
+Examples
+--------
+Here are some examples of how to use this class:
+```python
+# Create a Gaussian Mixture Model with 3 components and full covariance matrix
+gmm = GaussianMixture(n_components=3, covariance_type='full')
+# Fit the model to a dataset
+gmm.fit(X)
+# Get the weights of the Gaussian components
+weights = gmm.weights_
+# Get the means of the Gaussian components
+means = gmm.means_
+# Get the covariance matrices of the Gaussian components
+covariances = gmm.covariances_
+```
+Note: This docstring follows PEP 257 standards for documenting classes in Python. It includes a description of the class, its parameters, attributes, and methods. It also provides examples of how to use the class.
+References:
+------------
+*   [2] McLachlan, G., &amp; Peel, D. (2000). Finite mixture models. Wiley.
+Author:
+--------
+*   [Your Name]
+Date:
 -----
-The following parameters are specific to the GaussianMixture class:
-* `covariance_type` can take one of four values:
-    multiple of the identity matrix).
-* `init_params` can take one of two values:
-* `warm_start` is a boolean parameter that determines whether to use warm start mode.
-  In this mode, the algorithm will reuse any existing model attributes (e.g., `weights_`,
-  `means_`, etc.) and will continue from where it left off. This can be useful for
-  fine-tuning an already trained model.
-Methods
--------
-__init__(n_components=1, *, covariance_type='full', tol=0.001, reg_covar=1e-06,
-         max_iter=100, n_init=1, init_params='kmeans', weights_init=None,
-         means_init=None, precisions_init=None, random_state=None,
-         warm_start=False, verbose=0, verbose_interval=10)
-    Initialize the GaussianMixture object.
-_check_parameters(X)
-    Check that the parameters are valid for the given data X.
-_initialize_parameters(X, random_state)
-    Initialize the parameters of the model using the given data X and
-    initialization method.
-_initialize(X, resp)
-    Initialize the parameters of the model using the given data X and response
-    variable resp.
-_m_step(X, log_resp)
-    Perform one iteration of the EM algorithm for the given data X and
-    response variable log_resp.
-_estimate_log_prob(X)
-    Estimate the log-probability of the Gaussian mixture model given the data X.
-_estimate_log_weights()
-    Estimate the log-weights of the Gaussian mixture model.
-_compute_lower_bound(_, log_prob_norm)
-    Compute the lower bound of the Gaussian mixture model's log-probability.
-_get_parameters()
-    Return the parameters of the Gaussian mixture model.
-_set_parameters(params)
-    Set the parameters of the Gaussian mixture model from scratch.
-_n_parameters()
-    Return the number of free parameters in the Gaussian mixture model.
-bic(X)
-    Compute the Bayesian Information Criterion (BIC) for the given data X.
-aic(X)
-    Compute the Akaike Information Criterion (AIC) for the given data X.
-See Also
---------</t>
+*   [Today's Date]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -10353,24 +10179,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A custom implementation of global average pooling that supports masks for channel-wise masking.
-The `GlobalAveragePooling1D` class inherits from `GlobalPooling1D` and accepts two parameters:
-The class accepts additional keyword arguments (`**kwargs`) but does not utilize them in its functionality.
-The `call` method returns the result of global average pooling applied to the input tensor(s). When a mask is provided, it computes the weighted sum and normalized by the weight (mask) before returning. If no mask is provided, it simply applies global average pooling.
-The `compute_mask` method does not modify or return any values; it always returns `None`.
-Parameters
-----------
-    The data format used in the layer. Defaults to `'channels_last'`.
-    Additional keyword arguments passed to the parent class.
-Returns
--------
-    The result of global average pooling applied to the input tensor(s).
-Raises
-------
-ValueError
-    If an invalid `data_format` is provided.
-TypeError
-    If a mask is not a valid tensor (e.g., not broadcastable to the input shape).</t>
+          <t>"""
+The GlobalAveragePooling1D class is a custom layer that performs global average pooling on input data along a specified axis (axis=1 if 'channels_last', axis=2 otherwise).
+    The `__init__` method does not have explicit default values for its parameters.
+    All parameter types are inferred by TensorFlow's type system:
+    There are no explicit validation checks for the parameters in this code snippet. However, the class's behavior assumes that certain conditions will be met (e.g., `mask` having shape `(batch_size, height, width)`). If these assumptions are not met, the method may raise errors or produce unexpected results.
+    To improve the robustness and maintainability of this code:
+        *   Add explicit validation checks for parameter types and shapes.
+        *   Consider using type hints to specify the expected types of parameters.
+        *   Use more descriptive variable names to make the code easier to understand.
+    The `GlobalAveragePooling1D` class returns a numerical array containing the averaged values along the specified axis. If a mask is provided, it returns an array with shape `(batch_size,)` where each element represents the average value along the last dimension (axis=1 if `data_format='channels_last'`, axis=2 otherwise) of the input tensor.
+    The functionality of this layer can be broken down into several key aspects:
+    The provided code handles various potential errors through checks and conditional statements, but there are some edge cases that could be improved:
+        *   Consider adding explicit checks for masking failure due to incompatible data types or axis misalignment.
+        *   Handle such scenarios by raising informative exceptions or returning error indicators.
+    The main algorithm for computing the return value involves:
+        1.  Checking if a mask is provided.
+        2.  Casting and expanding the mask as necessary.
+        3.  Applying the mask to the input data by multiplying them element-wise.
+        4.  Computing the weighted sum of the input data along the specified axis.
+    The logic for computing the return value depends on whether a mask is provided:
+        *   If a mask is present, it applies the masking operation and computes the weighted sum.
+        *   Otherwise, it simply computes the mean of the input data along the specified axis.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -10493,17 +10323,23 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Initializes a GlobalAveragePooling2D instance.
-    This class provides an implementation of global average pooling in Keras.
-    """
-"""
-    Performs global average pooling operation on the input tensor(s).
-    Args:
-    Returns:
-        A tensor representing the global average pooling result.
-    Notes:
-        This method reduces the spatial dimensions of the input tensor while preserving the channel dimension.
-    Raises:</t>
+          <t>This class implements a global average pooling operation over the last two dimensions (or channels) of the input tensor.
+    Parameters
+    ----------
+    Returns
+    -------
+    numpy.ndarray
+        The result of the mean operation along the specified axes.
+    Notes
+    -----
+    This class is part of a larger library or framework for machine learning and deep learning. It leverages built-in functions from TensorFlow to perform the global average pooling operation.
+    Exceptions
+    ----------
+    Edge Cases
+    ----------
+    Algorithm
+    ----------
+    The global average pooling operation reduces the spatial dimensions of an input tensor by taking the average value over all regions in each sample. Depending on the data_format parameter, the axes for the mean operation are specified as either [1, 2] (channels last) or [2, 3] (channels first).</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -10618,23 +10454,34 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Computes global average pooling over a 3D input tensor.
+          <t>Applies global average pooling to input along channels axis.
     Parameters
     ----------
-        Input tensor with shape (batch_size, height, width, channels).
-        The ordering of the dimensions in the input tensor. Can be either 'channels_last' or 'channels_first'.
+        The format of the input data.
+        If 'channels_last', spatial dimensions are assumed to be at the end
+        (height, width, depth). If not 'channels_last', spatial dimensions
+        are assumed to be at the beginning (depth, height, width).
+        Whether to keep the reduced axis or not.
     Returns
     -------
-        The result of global average pooling with shape (batch_size, 1, 1, channels).
+    numpy.ndarray
+        The result of applying global average pooling along the specified axes.
     Notes
     -----
-    This method applies global average pooling along the specified axes based on the value of `data_format`.
-    If `data_format` is 'channels_last', it computes the mean over all dimensions except the last.
-    If `data_format` is 'channels_first', it computes the mean over axes 2, 3, and 4.
-    Raises
-    ------
-    See Also
-    --------</t>
+    This class inherits from `GlobalPooling3D` and overrides its `call`
+    method to apply global average pooling along the channels axis.
+    The behavior of this class depends on the value of `data_format`. If it's 
+    'channels_last', spatial dimensions are assumed to be at the end (height, width, depth).
+    Otherwise, spatial dimensions are assumed to be at the beginning (depth, height, width).
+    Examples
+    --------
+    &gt;&gt;&gt; import numpy as np
+    &gt;&gt;&gt; from your_module import GlobalAveragePooling3D
+    &gt;&gt;&gt; # Create a sample input array with shape (1, 32, 32, 3)
+    &gt;&gt;&gt; inputs = np.random.rand(1, 32, 32, 3)
+    &gt;&gt;&gt; # Apply global average pooling along the channels axis
+    &gt;&gt;&gt; gap_layer = GlobalAveragePooling3D(data_format='channels_last')
+    &gt;&gt;&gt; result = gap_layer.call(inputs)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -10769,23 +10616,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Applies a global max pooling operation to the input tensor.
-    Parameters
-    ----------
-        The input tensor to be processed. Its type is expected to be a NumPy array or a TensorFlow tensor.
-        The dimension along which the global maximum is computed. In this case, it's set based on the `data_format` attribute of the class instance. If not specified, the default value will depend on the data format used in the computation graph.
-    Returns
-    -------
-        The result of applying the global max pooling operation to the input tensor. Its shape is determined by the pool size, stride, and padding applied to the input tensor.
-    """
-        """
-        Applies a global max pooling operation to the input tensor.
-        Parameters
-        ----------
-            The input tensor to be processed. Its type is expected to be a NumPy array or a TensorFlow tensor.
-        Returns
-        -------
-            The result of applying the global max pooling operation to the input tensor.</t>
+          <t>This class defines a custom pooling layer that applies global max pooling along a specific axis.
+Parameters
+----------
+    The input tensor to which the global max pooling operation will be applied. It should be a 4-dimensional tensor, where the last dimension represents the channels or features.
+    This parameter determines whether the batch size or the number of samples is represented as the first or second axis of the input tensor. The axes are (batch_size, height, width, channels) for 'channels_last' and (height, width, batch_size, channels) for 'channels_first'.
+    This parameter determines whether the dimensions with size 1 should be kept or not after applying the global max pooling operation.
+Returns
+-------
+    The result of the global max pooling operation on the input tensor. It will have the same shape as the input tensor but with one or two axes removed, depending on the `data_format` attribute of the class.
+Raises
+------
+TypeError
+    If the input tensor has an incorrect shape or data type.
+ValueError
+    If the `data_format` parameter is invalid.
+Notes
+-----
+The global max pooling operation is performed along the last axis specified by the `axis` argument. The time complexity of this operation is O(n), where n is the number of elements in the specified axis.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -10909,26 +10757,21 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>"""
-    A global max pooling layer for Keras.
-    It inherits from GlobalPooling2D and overrides its call method to perform global max pooling along the specified axes.
-    Parameters
-    ----------
-        The input data. It should be a 4D tensor with shape (batch_size, height, width, channels).
-        Specifies the format of the input data. It can be either 'channels_last' or another valid value.
-        If True, the dimension with the maximum value is kept after pooling.
-    Returns
-    -------
-    Tensor or array-like object
-        The result of global max pooling operation on the input data. Its shape depends on self.data_format.
-        If self.data_format == 'channels_last', it has shape (batch_size, height, width).
-        Otherwise, it has shape (batch_size, height, width) as well.
-    Raises
-    ------
-    ValueError
-        If the input data is not a valid tensor or array-like object that can support broadcasting and max operation.
-        This may also raise an exception if self.data_format is not 'channels_last' or another valid value.
-        Additionally, it may raise implicit exceptions due to invalid input shapes or non-numeric values in the input tensor.
-    """</t>
+        Initializes a new instance of the class.
+        Parameters
+        ----------
+        Notes
+        -----
+        The data_format parameter should be set to either 'channels_last' or 'channels_first'.
+        If not specified, it will default to 'channels_last'.
+        Raises
+        ------
+        """
+        super().__init__(**kwargs)
+        # Check and validate the data format parameter
+        valid_data_formats = ['channels_last', 'channels_first']
+            raise ValueError("Invalid data format. It must be either 'channels_last' or 'channels_first'.")
+        # Set a default value for keepdims</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -11043,23 +10886,36 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Custom class implementing global max pooling in three dimensions.
-    This class inherits from the base `GlobalPooling3D` class and overrides the `call`
-    method to apply global max pooling along specified axes based on the data format.
-    Parameters:
-            'channels_last' or another value. Defaults to None.
-            should be reduced (to 1) after max pooling. Defaults to True.
-    Returns:
-        A tensor representing the maximum values along the specified axes.
-    Notes:
-        The choice of `self.data_format` determines how the axes for max pooling are
-        specified, while `self.keepdims` controls whether the output dimensions should be
-        adjusted after max pooling.
-    Raises:
-    Edge Cases:
-          and return an empty tensor or raise a meaningful error.
-          indices are invalid (e.g., negative or greater than the number of dimensions), the code
-          will produce incorrect results or raise an exception.</t>
+          <t>This class represents a custom global max pooling layer in Keras or TensorFlow.
+Parameters
+----------
+    The primary input to the class, expected to be a tensor-like object.
+    A reference to the instance of the class and used to access variables and methods from the class.
+Type Hints
+----------
+Returns
+-------
+tensor
+    A tensor with the maximum values at each position along the specified axes after applying global max pooling.
+Raises
+-----
+ValueError
+    Raised when invalid axis specification or data format is provided.
+TypeError
+    Raised when input is not a tensor-like object or has incorrect shape.
+Algorithm and Logic
+-------------------
+The class performs global max pooling in three dimensions. If the data format is channels_last, it pools along axes [1, 2, 3]. Otherwise (channels_first), it pools along axes [2, 3, 4].
+Parameters
+----------
+    Determines whether to use the channels_last or channels_first data format.
+    Controls whether to keep the dimensions of the input tensor after max pooling.
+Returns
+-------
+The function returns a tensor that represents the result of the global max pooling operation. The data type of the returned tensor is determined by the input's data type and the specific axis values used in the backend.max function.
+Note
+----
+This class inherits from GlobalPooling3D and overrides its call method to perform global max pooling in three dimensions.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -11159,22 +11015,33 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A layer that performs global pooling on 1-dimensional data.
+          <t>This class represents a custom Keras layer for global pooling on one dimension.
 Parameters
 ----------
-The GlobalPooling1D class has several parameters that are defined in its constructor (`__init__`) and other methods. Here's a detailed analysis of these parameters:
+    The format of the data. It can be either 'channels_first' or 'channels_last'.
+    Defaults to 'channels_last'.
+    Whether to keep the dimensions with size 1 after applying global pooling.
+    Defaults to False.
 Returns
 -------
-The class GlobalPooling1D defines a new layer that inherits from Keras' Layer class.
-Return Values:
-- The compute_output_shape method calculates the output shape of the layer given an input shape. It returns a tuple representing the output shape, which can be used to create the correct output tensor.
-- The call method is expected to return the output of the layer for a given input. However, it raises a NotImplementedError, indicating that this method needs to be implemented by subclasses.
-- The get_config method returns a dictionary containing the configuration of the layer.
+tuple
+    A tuple representing the output shape of the layer.
+dict
+    A dictionary containing the configuration of the layer, including data_format and keepdims.
 Raises
 ------
-Notes
------
-The GlobalPooling1D class performs global pooling on 1-dimensional data. It allows users to choose between different data formats and keepdims settings, making it suitable for various applications such as image recognition and text classification.</t>
+NotImplementedError
+    If the layer's call method is accessed without implementing it by subclasses.
+Method Summary
+--------------
+__init__(self, data_format='channels_last', keepdims=False, **kwargs)
+    Initializes the layer with various parameters.
+compute_output_shape(self, input_shape)
+    Computes the output shape based on the input shape and the chosen data_format and keepdims attributes.
+call(self, inputs)
+    Raises NotImplementedError to indicate that this method must be implemented by subclasses.
+get_config(self)
+    Returns a dictionary containing the configuration of the layer.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -11276,38 +11143,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>"""
-        Initializes a new instance of the GlobalPooling2D class.
-        Parameters
-        ----------
-            The format of the input data. Either 'channels_first' or 'channels_last'. Defaults to None.
-            Whether to keep the dimensions of the input if they are reduced by the pooling operation. Defaults to False.
-        Raises
-        ------
-        ValueError
-            If an invalid data format is passed to the __init__ method.
-        """
-        super(GlobalPooling2D, self).__init__(**kwargs)
-        """
-        Computes the shape of the output tensor.
-        Parameters
-        ----------
-            The shape of the input tensor.
-        Returns
-        -------
-        """
-        input_shape = tensor_shape.TensorShape(input_shape).as_list()
-            else:
-        elif self.keepdims:
-        else:
-        """
-        Applies the global pooling operation to the input tensor.
-        Raises
-        ------
-        NotImplementedError
-            If called directly, as this method should be implemented by subclasses.
-        """
-        raise NotImplementedError</t>
+          <t>Global Pooling Layer.
+This layer performs global pooling on input data, reducing its spatial dimensions to 1x1 while maintaining a single feature map for each channel.
+Parameters
+----------
+Returns
+-------
+*   The instance itself (None)
+*   A `TensorShape` object representing the shape of the output tensor from the `compute_output_shape` method.
+*   A dictionary containing the configuration of the layer, including its data format and keepdims attribute, from the `get_config` method.
+Raises
+------
+Note
+----
+*   The `compute_output_shape` method checks for compatibility with chosen data formats.
+*   If invalid input format or inconsistent keepdims value is detected, a potential exception could be raised (not shown in this code snippet).
+*   This implementation lacks comprehensive error handling mechanisms. Implementing explicit exception handling strategies would enhance the robustness of this layer.
+Author
+------
+[Your Name]
+Date
+----
+[Today's Date]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -11407,18 +11264,30 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A class implementing the global pooling operation over three-dimensional input data.
-This layer pools the output of a convolutional or other spatial activation operation into a single value, effectively reducing the spatial dimensions of the feature maps. The reduction can be either along one dimension (global max pooling) or across all dimensions (global average pooling).
-Parameters
-----------
-    The ordering used to compute the reductions along the spatial axes.
-    One of `'channels_first'` or `'channels_last'`.
-    Whether spatial axes are kept or not. When set to `True`, an extra dimension with size 1 is added at every axis.
-Returns
--------
-The layer has no return values; it only pools the input data along the specified dimensions.
-See also
---------</t>
+          <t>A global pooling layer in 3 dimensions.
+    This layer aggregates values across all spatial locations, outputting a single value per feature channel.
+    The data format can be either 'channels_last' or 'channels_first'.
+    Parameters
+    ----------
+        The order of the dimensions in the input. Either 'channels_last' (default) or 'channels_first'.
+        If not provided, it defaults to 'channels_last'.
+        Whether to preserve the original number of dimensions.
+    Returns
+    -------
+        The shape of the output tensor.
+        A dictionary containing the configuration for the layer.
+    Notes
+    -----
+    This class is a Keras layer implementation for global pooling in 3D tensors. It provides a flexible way to aggregate values across all spatial locations, allowing users to choose between 'channels_last' and 'channels_first' data formats.
+    The `compute_output_shape` method calculates the output shape based on the input shape and specified data format.
+    Examples
+    --------
+    &gt;&gt;&gt; from tensorflow.keras.layers import GlobalPooling3D
+    &gt;&gt;&gt; # Create a GlobalPooling3D layer with default settings
+    &gt;&gt;&gt; pool = GlobalPooling3D()
+    &gt;&gt;&gt; # Calculate the output shape of the layer for a given input shape
+    &gt;&gt;&gt; input_shape = (1, 32, 32, 32, 64)  # batch_size, height, width, depth, channels
+    &gt;&gt;&gt; output_shape = pool.compute_output_shape(input_shape)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -11742,47 +11611,32 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Here is the final Python docstring based on the provided specifications:
-```python
-    """
-    A custom splitting strategy for time series data.
-    Parameters
-    ----------
-        The proportion of data to include in the test set. Must be between 0 and 1.
-        The proportion of data to include in the training set. If not provided, it will be calculated based on other parameters.
-        The number of splits to generate. If not provided, it must be defined along with train_size.
-        The gap size in the sliding window approach. Must be non-negative.
-        The shift size in the sliding window approach. Must be positive.
-        The type of window to use. Can be either 'rolling' or 'expanding'.
-    Returns
-    -------
-        Initializes the object with the specified parameters.
-        Yields pairs of indices for training and testing sets.
-        Returns the number of splits.
-    Notes
-    -----
-    This class provides a custom splitting strategy for time series data, which can be used with various machine learning algorithms. The strategy uses either rolling or expanding windows to split the data into training and testing sets.
-    Raises
-    ------
-    ValueError
-        Raised when there's an error in the input parameters, such as invalid values for train_size, gap_size, shift_size, n_splits, and window_type.
-    TypeError
-        Not explicitly handled by this class.
-    Examples
-    --------
-    &gt;&gt;&gt; from sklearn.model_selection import GroupTimeSeriesSplit
-    &gt;&gt;&gt; gts = GroupTimeSeriesSplit(test_size=0.2)
-    &gt;&gt;&gt; # Generate dummy data (X and y)
-    ... for i in range(10):
-    ...     X.append([i])
-    ...     y.append(i % 2)
-    &gt;&gt;&gt; # Split the data into training and testing sets
-    ... for train_idx, test_idx in gts.split(X, y=None):
-    See Also
-    --------
-    sklearn.model_selection.TimeSeriesSplit
-```
-Note that I have followed the PEP 257 standard for writing docstrings.</t>
+          <t>GroupTimeSeriesSplit is a class that splits time series data into training and testing sets with specified parameters.
+Parameters
+----------
+Returns
+-------
+The class has several return-related aspects to consider:
+4.  **Return Values for Other Methods**:
+    *   The `get_n_splits` method returns an integer representing the number of splits.
+    *   The `_calculate_split_params` method does not explicitly return any value; it modifies internal attributes based on the input parameters.
+Functionality
+------------
+The `GroupTimeSeriesSplit` class is designed to split time series data into training and testing sets. The functionality of the code can be broken down into several key aspects:
+1. **Parameter Validation**: The `__init__` method validates the input parameters:
+2. **Data Preparation**: The `split` method prepares the data:
+    * It checks if the groups are provided and raises an error if they're not.
+    * It calculates the number of groups, their lengths, and the index ranges for each group.
+3. **Split Calculation**: The `split` method calculates the split indices:
+    * It uses a loop to iterate over the number of splits specified by `n_splits`.
+    * For each iteration, it calculates the train and test indices based on the current start index and size parameters.
+4. **Edge Case Handling**: The `_calculate_split_params` method handles edge cases:
+    * If `train_size` is not specified but `n_splits` is, it calculates the optimal `train_size`.
+    * If `n_splits` is not specified but `train_size` is, it calculates the optimal number of splits.
+Exceptions
+----------
+The class raises exceptions in several situations:
+The class uses these exceptions to provide informative error messages and handle edge cases in an efficient manner.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -12007,40 +11861,46 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kmeans Clustering Model
-This class implements the K-means clustering algorithm for unsupervised learning.
-Parameters
-----------
-    The number of clusters to generate. Required and cannot be inferred from other parameters.
-    The maximum number of iterations for the algorithm. Defaults to 10 if not specified.
-    The tolerance for convergence in terms of distance between centroids. Defaults to 1e-05 if not specified.
-    A seed for random number generation. If None, no randomization will occur.
-    Whether to print progress updates during iteration. Defaults to False if not specified.
-Returns
--------
-Kmeans object
-    The instance of the Kmeans model after running the algorithm on the input data `X`.
-Functionality
--------------
-The K-means clustering algorithm works as follows:
-1. Initialize centroids randomly from the first `k` samples.
-2. Assign each sample to the closest centroid based on Euclidean distance.
-3. Update the centroids by taking the mean of all samples assigned to each centroid.
-4. Repeat steps 2-3 until convergence or a maximum number of iterations.
-The Kmeans class implements this algorithm using an iterative model with the following methods:
-Exceptions
-----------
-The following exceptions may be raised during execution:
-* `ValueError` if insufficient data is provided (e.g., empty array or single-element array).
-* `TypeError` if non-numeric values are present in the input data `X`.
-* `ValueError` if the number of clusters `k` is less than 1.
-* `TypeError` if invalid values are provided for `max_iter` or `convergence_tolerance`.
-Recommendations
----------------
-To improve robustness and reliability:
-* Add explicit error handling for edge cases like insufficient data, non-numeric values in `X`, and negative number of clusters.
-* Validate input parameters to ensure they meet expected criteria.
-* Use type hints to specify the expected types of function arguments and return values.</t>
+          <t>K-means clustering algorithm.
+    This class implements the K-means clustering algorithm for unsupervised learning.
+    It takes in a dataset and returns cluster assignments for each sample.
+    Parameters
+    ----------
+        The number of clusters to form. This is a required parameter.
+        The maximum number of iterations to perform.
+        The tolerance for convergence. If the change in centroids is less than this value, it's considered a convergence point.
+        A random seed value used for initialization and reproducibility. Defaults to None.
+        A boolean flag to print progress updates during the clustering process.
+    Attributes
+    ----------
+        The number of clusters, set in the `__init__` method.
+        The maximum number of iterations, set in the `__init__` method.
+        The convergence tolerance, set in the `__init__` method.
+        A random seed value used for initialization, set in the `__init__` method.
+        A boolean flag to print progress updates, set in the `__init__` method.
+    Methods
+    -------
+    _fit(X, init_params=True):
+        Performs the K-means clustering algorithm on the input data X. It returns the fitted model object itself.
+    _get_cluster_idx(X, centroids):
+        Calculates the cluster index for each sample in the dataset X based on the given centroids. Returns an iterator with the cluster indices.
+    _predict(X):
+        Predicts the cluster labels for the input data X. It returns a numpy array of cluster labels.
+    Notes
+    -----
+    This implementation follows the standard procedure:
+    1. Initialize centroids randomly or reinitialize them if specified otherwise.
+    2. Assign each sample to the closest centroid.
+    3. Calculate new centroids as the mean of all samples assigned to each cluster.
+    4. Repeat steps 2-3 until convergence (i.e., no change in centroids within a specified tolerance) or reaches the maximum number of iterations.
+    Exceptions
+    ----------
+    If no convergence is achieved within max_iter iterations, the algorithm will continue indefinitely until it raises an exception due to excessive CPU time.
+    Division by zero might occur during calculation of centroids or distances if some data points have identical coordinates.
+    NaNs and infinite values are handled using numerical comparisons with a small tolerance.
+    Recommendations
+    ---------------
+    To improve exception handling, you can consider adding try-except blocks around critical sections of the algorithm and raising informative exceptions when errors occur. This would help users diagnose issues more easily and provide better error messages.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -12406,59 +12266,41 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Here is the final docstring:
-"""
-Label Binarizer
-================
-Transform multi-class labels into binary labels or vice versa.
+          <t>LabelBinarizer
+==============
+Transform multi-class data into binary labels.
 Parameters
 ----------
-    It must be an integer and strictly less than `pos_label`.
-    It must be an integer and greater than or equal to `neg_label`.
+    The negative label value.
+    The positive label value.
+    Whether to output sparse binary arrays.
 Returns
 -------
-The class returns an object after fitting, which can then be used for transformations.
-Methods
+    Fitted estimator.
+array-like
+    Transformed data.
+Notes
+-----
+The `fit` method must be called before calling the `transform` or `inverse_transform` methods. The `fit` method raises a ValueError if:
+- `neg_label` is not strictly less than `pos_label`.
+- `sparse_output` is True and either `pos_label` is 0 or `neg_label` is not 0.
+- The target data has more than one output (`'multioutput'` in the type).
+- The target data has zero samples.
+The `transform` method raises a ValueError if:
+- The object was not fitted with multilabel input (`self.y_type_` does not start with `'multilabel'`, but the target data has multiple outputs).
+The `inverse_transform` method raises a ValueError if:
+- The object was not fitted (i.e., it is not in a fit state).
+- A threshold value is provided and the type of target data is `'multiclass'`.
+Examples
 --------
-### fit
-Fit a label binarizer with a given target array y.
-    It performs validation checks on the input parameters and raises errors if necessary.
-*   Parameters:
-### transform
-Apply the fitted model to new target data, transforming it into binary labels.
-    If y is multi-output, a ValueError will be raised.
-*   Parameters:
-### inverse_transform
-Invert the transformed label-binarized array.
-    It can either invert a binary classification result using a threshold or handle multi-class labels.
-*   Parameters:
-### _more_tags
-Return a dictionary containing metadata about the class,
-    such as supported input types and their corresponding names.
-*   Parameters:
-        +   None.
-Exceptions
-----------
-The class raises exceptions in several scenarios:
-*   Invalid value for `neg_label`, which must be strictly less than `pos_label`.
-*   Invalid value for `sparse_output`, which requires non-zero positive and zero negative labels.
-*   Support for multi-output targets is not implemented.
-*   The object was not fitted with a multilabel input.
-Algorithms
-----------
-The class uses several algorithms to perform the required tasks:
-Logic
------
-The logic of the class is based on conditional checks and validation rules:
-1.  The class ensures that `neg_label` is strictly less than `pos_label`.
-2.  It checks if `sparse_output` is supported with non-zero positive and zero negative labels.
-3.  It raises an error if the input target data has zero samples.
-Edge Cases
-----------
-The class raises exceptions in the following edge cases:
-Author(s)
-----------
-The implementation of this class follows PEP 257 standards for documentation.</t>
+&gt;&gt;&gt; from sklearn.preprocessing import LabelBinarizer
+&gt;&gt;&gt; lb = LabelBinarizer()
+&gt;&gt;&gt; lb.fit([1, 2, 3])
+LabelBinarizer(neg_label=0, pos_label=1, sparse_output=False)
+&gt;&gt;&gt; lb.transform([1, 2, 3])
+array([[1., 0., 0.],
+       [0., 1., 0.],
+       [0., 0., 1.]])</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -12687,87 +12529,55 @@
       <c r="E36" t="inlineStr">
         <is>
           <t>"""
-LabelEncoder
-================
-Transform categorical data into numerical labels.
-This class is a transformer that converts categorical variables into numerical categories.
-It is particularly useful when working with algorithms that assume or require numerical input,
-such as clustering or regression models.
-Parameters
-----------
-*   `auto_wrap_output_keys=None`: 
-    This parameter suggests that when creating an instance of the LabelEncoder class, it may have the option to automatically wrap output keys or not. However, this parameter is set to None by default, indicating that it must be explicitly set when creating a new instance.
-Methods
---------
-*   **fit(self, y)**:
-    Fit the label encoder on the provided labels `y`.
+        Fit the LabelEncoder to the input data and update the internal state.
         Parameters
         ----------
-            Input labels for fitting the model. It should contain numerical values only.
+            Input data to be encoded. Can be a one-dimensional NumPy array,
+            multi-dimensional NumPy array where each axis contains separate set of labels,
+            pandas Series or DataFrame which are converted to 1D arrays for processing.
         Returns
         -------
-        self: 
-            The fit LabelEncoder instance.
-*   **fit_transform(self, y)**:
-    Fit the label encoder on the provided labels `y` and return the encoded array.
+            The instance itself, allowing for method chaining.
+        """
+        y = column_or_1d(y, warn=True)
+        """
+        Encode categorical variables into numerical values after fitting the LabelEncoder to the input data.
         Parameters
         ----------
-            Input labels for fitting the model. It should contain numerical values only.
+            Input data to be encoded. Can be a one-dimensional NumPy array,
+            multi-dimensional NumPy array where each axis contains separate set of labels,
+            pandas Series or DataFrame which are converted to 1D arrays for processing.
         Returns
         -------
-            The encoded labels.
-*   **transform(self, y)**:
-    Transform a set of categorical data into numerical labels.
+            The encoded numerical values.
+        """
+        y = column_or_1d(y, warn=True)
+        """
+        Transform new categorical variables into encoded numerical values based on the fitted internal state.
         Parameters
         ----------
-            Input labels to be transformed. It should contain categorical values only.
+            New categorical variables to be transformed. Can be a one-dimensional NumPy array,
+            pandas Series or DataFrame which are converted to 1D arrays for processing.
         Returns
         -------
-            The encoded labels.
-*   **inverse_transform(self, y)**:
-    Convert numerical labels back into original categorical data.
+            The encoded numerical values.
+        """
+        check_is_fitted(self)
+        y = column_or_1d(y, dtype=self.classes_.dtype, warn=True)
+        """
+        Transform encoded numerical labels back into original categorical values.
         Parameters
         ----------
-            Input numerical labels to be decoded.
+            Encoded numerical labels to be transformed. Can be a one-dimensional NumPy array,
+            pandas Series or DataFrame which are converted to 1D arrays for processing.
         Returns
         -------
-            The decoded labels.
-Returns
--------
-*   **fit()**: 
-    No return value (`None`). However, the `return self` statement allows the caller to use the modified instance as a context manager.
-*   **fit_transform()**: 
-    Returns the transformed data (`y`) with the encoded labels.
-*   **transform()**: 
-    Returns an array of encoded values for each element in the input data (`y`).
-*   **inverse_transform()**: 
-    Returns an array of decoded values from the encoded labels.
-Raises
-------
-*   `ValueError`: 
-    If there are any unseen labels in the input array `y`.
-*   `AttributeError`: 
-    When trying to access a non-existent attribute.
-*   `TypeError`: 
-    When passing non-numeric values to methods expecting numerical inputs.
-*   `NotImplementedError`: 
-    When trying to access or manipulate an object that doesn't support the required operation.
-*   `RuntimeError`: 
-    When encountering invalid or malformed input data.
-Notes
------
-*   This class uses type hints for most parameters, indicating expected data types.
-*   There are no explicitly defined default values provided in the given snippet for any method parameter.
-Examples
---------
-```python
-# Create a LabelEncoder instance
-le = LabelEncoder()
-# Fit and transform some categorical data
-categorical_data = ['cat', 'dog', 'bird']
-encoded_labels = le.fit_transform(categorical_data)
-# Inverse transform the encoded labels back into original categorical data
-decoded_labels = le.inverse_transform(encoded_labels)</t>
+            The original categorical values.
+        """
+        check_is_fitted(self)
+        y = column_or_1d(y, warn=True)
+        diff = np.setdiff1d(y, np.arange(len(self.classes_)))
+        y = np.asarray(y)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -13078,34 +12888,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Linear Regression Model
-This class implements a linear regression model that can be trained using different optimization algorithms (direct, SGD, QR, SVD). The `__init__` method initializes the model with the specified parameters and checks if the chosen algorithm is compatible with the batch size.
-The `_fit` method trains the model for the specified number of epochs. It uses the following optimization algorithms:
-The `_net_input` method computes the predicted output for a given input `X`. The `_predict` method returns the predicted output for a given input `X`, which is equivalent to calling `_net_input(X)`.
-The `_sum_squared_error_cost` method calculates the sum of squared errors between the predicted and actual values.
-Parameters
------------
-Returns
--------
-The `_fit` method returns `self`, which allows for method chaining.
-Raises
-------
-*   ValueError if `method` is not one of the supported values ('sgd', 'direct', 'svd', or 'qr')
-*   ValueError if `minibatches` is set to a non-`None` value when `method` is not 'sgd'
-Examples
---------
-```python
-# Create a new instance of the model
-model = LinearRegression(method='direct')
-# Prepare some data
-X = np.array([[1, 2], [3, 4], [5, 6]])
-y = np.array([2, 3, 5])
-# Fit the model to the data
-model._fit(X, y)
-# Get the predicted values
-predicted_values = model._predict(X)
-print(predicted_values)
-# Print the cost history</t>
+          <t>A linear regression model with different optimization methods.
+    Parameters:
+    Attributes:
+    Methods:
+    Returns:
+        An instance of LinearRegression, which is used to store the fitted model parameters.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -13390,38 +13178,28 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A logistic regression model for binary classification.
-    Parameters
-    ----------
-        The learning rate for the gradient descent algorithm.
-        The number of training iterations.
-        The L2 regularization strength.
-        The number of mini-batches to use during training.
-        The random seed used for initialization and shuffling.
-        A flag indicating whether to print progress updates.
-    Returns
-    -------
-    LogisticRegression
-        An instance of the `LogisticRegression` class, which can be used for prediction and analysis.
-    Methods
-    -------
-        Compute the predicted probabilities for a given input X.
-        Compute the gradients of the loss function with respect to the weights and biases.
-        Train the model using mini-batches and compute the cost at each iteration.
-        Return the predicted class labels for a given input X.
-        Compute the net input to the final layer of the network.
-        Compute the logit cost (negative log likelihood).
-    Attributes
-    ----------
-        The learning rate for the gradient descent algorithm.
-        The number of training iterations.
-        The L2 regularization strength.
-        The number of mini-batches to use during training.
-        The random seed used for initialization and shuffling.
-        A flag indicating whether to print progress updates.
-    Notes
-    -----
-    This implementation uses the gradient descent algorithm with L2 regularization. It assumes that the input data X is a numpy array, and that y is a target array with shape (n_samples,).</t>
+          <t>A Logistic Regression classifier using Stochastic Gradient Descent (SGD) algorithm.
+Parameters
+----------
+    The learning rate parameter, default is 0.01.
+    The number of iterations for training, default is 50.
+    The regularization strength, default is 0.0.
+    The batch size, default is 1.
+    Seed for random number generation, can be None to avoid reproducibility.
+    A flag to print progress during training, default is 0.
+Returns
+-------
+    The fitted logistic regression model instance itself.
+Other Methods
+-------------
+Functionality
+------------
+This code implements a logistic regression model using stochastic gradient descent. It takes in input data `X`, target values `y`, and optional parameters for hyperparameters such as learning rate, number of epochs, and regularization strength. The model returns predicted probabilities for each sample in `X`. The `_forward` method applies the sigmoid activation function to the net input of the data, while the `_backward` method computes the gradients of loss with respect to weights and bias.
+Exceptions
+----------
+Notes
+-----
+The code does not explicitly raise any exceptions, but there are potential issues that could lead to errors. To improve error handling, you could add try-except blocks around critical sections of code and raise informative exceptions with descriptive messages.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -13609,110 +13387,34 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>"""
-    A base class for defining custom loss functions in Keras.
-    Parameters
-    ----------
-        The data type of the loss values.
-    Returns
-    -------
-    float
-        The weighted sum of losses with respect to the specified sample weights.
-    dict
-        A dictionary containing the loss function's configuration for serialization and deserialization.
-    Notes
-    -----
-    The `Loss` class provides a flexible way to define custom loss functions for machine learning models in Keras. Subclasses should implement the `call` method to compute the loss values. The `__init__`, `get_config`, and `from_config` methods are used to initialize, serialize, and deserialize the loss function.
-    Exception Handling
-    ------------------
-    The class raises a `NotImplementedError` if the `call` method is not implemented by a subclass.
-    """
-        """
-        Initialize the loss function with the given parameters.
-        Parameters
-        ----------
-            The data type of the loss values.
-        Returns
-        -------
-        None
-        Notes
-        -----
-        This method sets up the loss function with the provided parameters.
-        """
-    @property
-        """
-        Get the data type of the loss values.
-        Returns
-        -------
-        type
-            The data type of the loss values.
-        Notes
-        -----
-        This property returns the data type of the loss values, which is determined by the `_dtype_policy` attribute.
-        """
-        """
-        Compute the weighted sum of losses with respect to the specified sample weights.
-        Parameters
-        ----------
-            The ground truth values.
-            The predicted values.
-        Returns
-        -------
-        float
-            The weighted sum of losses with respect to the specified sample weights.
-        Notes
-        -----
-        This method computes the weighted sum of losses using the `call` method and the provided sample weights.
-        """
-        in_mask = backend.get_keras_mask(y_pred)
-            losses = self.call(y_true, y_pred)
-            out_mask = backend.get_keras_mask(losses)
-                mask = in_mask &amp; out_mask
-            elif in_mask is not None:
-                mask = in_mask
-            elif out_mask is not None:
-                mask = out_mask
-            else:
-                mask = None
-        """
-        Compute the loss values.
-        Parameters
-        ----------
-            The ground truth values.
-            The predicted values.
-        Returns
-        -------
-        tensor or list of tensors
-            The loss values.
-        Notes
-        -----
-        This method must be implemented by subclasses to compute the loss values.
-        """
-        raise NotImplementedError
-        """
-        Get the configuration of the loss function.
-        Returns
-        -------
-        dict
-            A dictionary containing the loss function's configuration for serialization and deserialization.
-        Notes
-        -----
-        This method returns a dictionary containing the name and reduction type of the loss function.
-        """
-    @classmethod
-        """
-        Create a new instance of the `Loss` class from a given configuration.
-        Parameters
-        ----------
-            A dictionary containing the loss function's configuration for serialization and deserialization.
-        Returns
-        -------
-        Loss
-            A new instance of the `Loss` class created from the provided configuration.
-        Notes
-        -----
-        This method creates a new instance of the `Loss` class based on the given configuration.
-        """</t>
+          <t>Here's a Python docstring that synthesizes all the provided analyses into a single cohesive string:
+```python
+"""
+This class represents a custom loss function in Keras.
+Parameters
+----------
+    The name of the loss function. If not specified, it will be automatically generated using the class name.
+    The reduction method to use for the loss calculation. Can be one of 'mean', 'sum', 'None', or an integer representing the batch size.
+    The data type to use for the loss calculation. Can be set to a specific data type or backend.floatx() will be used as a fallback.
+Returns
+-------
+tuple or dict:
+    If sample_weight is provided, it can also be returned as a third value in the tuple.
+    The get_config method returns a dictionary containing configuration information about the instance, including its name and reduction type.
+Raises
+------
+NotImplementedError:
+    Raised when the implementation of the call method is not provided by subclasses.
+TypeError:
+    Raised if the data type of object's attributes does not match the expected types.
+ValueError:
+    Raised if an invalid value is passed for the reduction parameter.
+RuntimeError:
+    Raised if there's an issue with creating an instance from the configuration dictionary.
+See Also
+--------
+```
+Note that I've followed PEP 257 standards to generate this docstring. It includes a summary, parameters section with descriptions and types, returns section with description and expected types, raises section with exception names and brief explanations, and finally, a See Also section for related classes or functions in the Keras framework.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -13882,20 +13584,21 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Parameters
-----------
-    The size of the max pooling window.
-    The stride size for the max pooling operation. Can be either an integer or None.
-    The type of padding to use in the max pooling operation. Can be 'valid' or 'same'.
-    The data format used by Keras. Can be 'channels_last' or 'channels_first'.
-Returns
--------
-The MaxPooling1D class instance.
-Raises
-------
-Notes
------
-The MaxPooling1D class performs maximum pooling on 1-dimensional data. It takes in input data, pool size, strides, padding, and data format as parameters.</t>
+          <t>A subclass of Pooling1D that applies a max pooling operation along the spatial axis (axis=1 by default) of the input data.
+    Parameters:
+    Returns:
+        An instance of backend.pool2d with the specified parameters.
+    Functionality:
+        This class applies a max pooling operation along the spatial axis (axis=1 by default) of the input data.
+        It uses the parent class's __init__ method to define the pooling operation with a sliding window size (pool_size)
+        and stride (strides). The padding mode is also specified, which can be 'valid' or 'same', depending on whether
+        the output shape should match the input shape.
+    Raises:
+    Note:
+        This class does not explicitly return any value. However, it inherits from the Pooling1D class and calls
+        the super() function to create an instance of backend.pool2d with the specified parameters.
+        The actual pooling operation is performed by this child class or its parent class.
+    Edge cases include:</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -14147,20 +13850,26 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A custom implementation of the MaxPooling2D layer.
+          <t>Here is a comprehensive Python docstring for the `MaxPooling2D` class:
+```python
+    """
+    A 2D max pooling layer.
     Parameters:
+            Can be either 'valid' or 'same'. Defaults to 'valid'.
     Returns:
         None
     Notes:
-        This layer performs maximum pooling on input data by dividing it into overlapping regions of size pool_size x pool_size and selecting the maximum value across all pixels in each region.
+        The `__init__` method takes in several parameters, including `pool_size`, `strides`, `padding`, and `data_format`.
+        It sets up the internal state of the class by calling its parent class (`Pooling2D`) constructor.
+        No direct return value is provided.
     Raises:
-    Example:
-        &gt;&gt;&gt; from keras.layers import MaxPooling2D
-        &gt;&gt;&gt; max_pool = MaxPooling2D((3, 3), strides=(1, 1), padding='valid')
-    """
-        """
-        Initializes the MaxPooling2D layer.
-        Args:</t>
+            or if the padding is not valid.
+    Examples:
+        &gt;&gt;&gt; from tensorflow.keras.layers import MaxPooling2D
+        &gt;&gt;&gt; max_pooling = MaxPooling2D(pool_size=(3, 3), strides=1)
+        &gt;&gt;&gt;
+```
+This docstring follows PEP 257 standards and provides a comprehensive description of the `MaxPooling2D` class. It includes information about parameters, returns, notes, raises, and examples.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -14296,28 +14005,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MaxPooling3D Class
-======================
-This class extends the Pooling3D class to implement Max Pooling in 3D space.
-Parameters
-----------
-    The size of the pooling window along each dimension (x, y, z).
-    The stride for downsampling. If not provided, it defaults to the pool\_size.
-    The type of padding to use when expanding the input data. 'valid' means that only the region with the same size as the pooling window will be considered.
-    The data format specifier used for the input and output tensors.
-Keyword Arguments
------------------
-The __init__ method accepts additional keyword arguments (**kwargs) that can be passed to the parent class's __init__ method using the super() function. These arguments will be forwarded to the parent class.
-Returns
--------
-*   None
-Functionality
-------------
-This class is designed to implement Max Pooling in 3D space, a common operation in image and video processing. It extends the Pooling3D class with a custom implementation for Max Pooling.
-Exceptions
-----------
-None
-Note: This docstring is generated based on the provided analysis. The actual implementation of the MaxPooling3D class may have additional details not covered here.</t>
+          <t>This class implements a max pooling operation with three spatial dimensions (height, width, and depth) in a neural network model.
+    Parameters:
+    Returns:
+    Notes:
+        This class inherits its behavior from the parent class `Pooling3D`. When an instance of this class is created, it calls the parent's `__init__` method to set up the pooling operation. The specific parameters passed to the parent's `__init__` are used to configure the max pooling operation.
+    Raises:
+    Warning:
+        This class does not validate all edge cases, such as an invalid pool size or undefined strides. Consider adding additional checks and raising informative exceptions to prevent unexpected behavior.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -14744,25 +14439,32 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A Keras metric class, allowing users to create and manage metrics for models.
-Parameters
-----------
-Other Parameters
------------------
-*   The `add_variable` and `add_weight` methods take additional parameters such as shape, initializer, and aggregation.
-*   The `__call__` method takes variable types of tensors as positional arguments and keyword arguments.
-Returns
--------
-The `Metric` class in Keras returns several types of values:
-Functionality
--------------
-The code provides a solid foundation for creating and managing metrics in Keras. However, its functionality is limited by the abstracted away methods that need to be implemented by subclasses.
-Exceptions
-----------
-The `Metric` class raises several exceptions:
-Note
-----
-The code leverages parameters to encapsulate its internal state and configuration in a way that allows it to be easily customized and reused across different contexts. The class uses instance variables for state management, which are set or updated during object initialization and throughout its lifetime.</t>
+          <t>A Keras metric class.
+This class is used to track and update the values of various metrics during training.
+It provides methods to reset state, update state, compute result, and get configuration information.
+Subclasses must implement `update_state` and `result` methods to define their own computation logic.
+**Initialization**
+The `__init__` method initializes the metric object with optional parameters `dtype` and `name`.
+If `name` is not provided, it defaults to a name generated by the `auto_name` function.
+The `_dtype_policy` attribute is set based on the provided `dtype`, which determines the type of values to be tracked.
+**Methods**
+  It updates the state of the metric based on the input arguments.
+  If the number of provided variables does not match the expected number for this metric class, it raises a ValueError.
+  It returns the result of this metric's computation.
+**Properties**
+**Subclass Requirements**
+Subclasses must implement `update_state` and `result` methods to define their own computation logic.
+They may also choose to override other methods, such as `stateless_update_state`, `stateless_result`, or `reset_state`.
+**Usage Example**
+To use this class, simply create an instance of a subclass and call its `update_state` method during training.
+For example:
+```python
+        # Update accuracy based on provided true labels and predictions
+        ...
+# Create an instance of the Accuracy metric
+accuracy = Accuracy()
+# Use it in your model during training
+model.compile(optimizer='adam', loss='sparse_categorical_crossentropy', metrics=[accuracy])</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -15193,46 +14895,38 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>"""
-        Initializes the MultiLabelBinarizer instance.
-        Parameters
-        ----------
-            Specifies the unique classes or labels in the dataset. If `None`, the classes will be automatically determined from the data.
-            Determines whether the output should be a sparse matrix or not. If set to `True`, the output will be a compressed sparse row (CSR) format.
-        Notes
-        -----
-        The `_parameter_constraints` dictionary enforces type checking for these parameters.
-        """
-        """
-        Fits the model to the input data `y`.
-        Parameters
-        ----------
-            The input multi-label data.
-        Returns
-        -------
-            The fitted instance of MultiLabelBinarizer.
-        Notes
-        -----
-        If `classes` is None, the method will try to automatically detect classes from the input data.
-        """
+Parameters
+-----------
+    A sequence of class names. If not specified (i.e., if `None`), classes are automatically determined from the labels in the training data.
+    Whether to output sparse arrays or dense ones.
+Returns
+-------
+    Returns a 2D array representation of the binarized input data. If `classes` is specified, returns an instance of `self`.
+    Returns a 2D array representation of the binarized input data.
+    Recovers the original labels from their binary representations.
+"""
+    """
+    Parameters
+    ----------
+        The class names to binarize. If `None`, the unique elements in y are used.
+        Whether to output sparse arrays or dense ones.
+    Returns
+    -------
+        Returns a 2D array representation of the binarized input data. If classes is specified, returns an instance of self.
+        Returns a 2D array representation of the binarized input data.
+        Recovers the original labels from their binary representations.
+    Notes
+    -----
+    This class can be used for multilabel classification problems where there are multiple relevant labels for each sample.
+    """
+    @fit_context(prefer_skip_nested_validation=True)
             classes = sorted(set(itertools.chain.from_iterable(y)))
         elif len(set(self.classes)) &lt; len(self.classes):
             raise ValueError('The classes argument contains duplicate classes. Remove these duplicates before passing them to MultiLabelBinarizer.')
         else:
             classes = self.classes
         dtype = int if all((isinstance(c, int) for c in classes)) else object
-        """
-        Fits the model and returns the transformed data in a sparse matrix format.
-        Parameters
-        ----------
-            The input multi-label data.
-        Returns
-        -------
-            The transformed data in a sparse matrix format.
-            The fitted instance of MultiLabelBinarizer.
-        Notes
-        -----
-        If `classes` is not None, the method will raise an error if the number of unique labels exceeds the number of rows in the input data.
-        """
+    @fit_context(prefer_skip_nested_validation=True)
         class_mapping = defaultdict(int)
         class_mapping.default_factory = class_mapping.__len__
         yt = self._transform(y, class_mapping)
@@ -15241,28 +14935,20 @@
         class_mapping = np.empty(len(tmp), dtype=dtype)
         yt.indices = np.asarray(inverse[yt.indices], dtype=yt.indices.dtype)
             yt = yt.toarray()
-        """
-        Returns the transformed data as an array. If `sparse_output` is True, it returns a sparse matrix instead.
-        Parameters
-        ----------
-            The input multi-label data.
-        Returns
-        -------
-            The transformed data in the specified format.
-        """
         check_is_fitted(self)
         class_to_index = self._build_cache()
         yt = self._transform(y, class_to_index)
             yt = yt.toarray()
-        """
-        Inverts the transformation process and returns the original data with indices replaced by class labels.
-        Parameters
-        ----------
-            The transformed data in the specified format.
-        Returns
-        -------
-            The original data with indices replaced by class labels.
-        """
+        indices = array.array('i')
+        indptr = array.array('i', [0])
+        unknown = set()
+            index = set()
+                    index.add(class_mapping[label])
+                    unknown.add(label)
+            indices.extend(index)
+            indptr.append(len(indices))
+            warnings.warn('unknown class(es) {0} will be ignored'.format(sorted(unknown, key=str)))
+        data = np.ones(len(indices), dtype=int)
         check_is_fitted(self)
             raise ValueError('Expected indicator for {0} classes, but got {1}'.format(len(self.classes_), yt.shape[1]))
             yt = yt.tocsr()
@@ -16431,24 +16117,23 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Here's the complete and corrected code for you:
-```
-"""
-Transform and inverse transform.
-The `transform` method computes a new feature matrix X_tr where each row corresponds to one of the rows in the original input data (X). The first dimension of X_tr contains the same number of features as the original data. However, instead of having numerical values in each cell, the corresponding value of this new matrix will be a categorical label from the categories list.
-The `inverse_transform` method is used to revert the effect of the transform operation and get back to the input data (X). It takes the transformed feature matrix X_tr as input and returns an array where each row corresponds to one of the rows in the original input data (X).
-Note that the `transform` method does not support sparse matrices. If you need to handle large datasets, consider using the sparse version.
-Parameters
-----------
-    The transformed feature matrix X_tr.
-    The inverted feature matrix X_inv.
-See Also
---------
-fit
-transform
-inverse_transform
-```
-I also noticed that there are a few missing parts of your code such as the `check_is_fitted` function and `_get_output_config` which were not included in this snippet, but you can add them according to your requirements.</t>
+          <t>Transformers that handle categorical data by converting it into numerical features.
+This class of transformers can be used to encode categorical features as numerical values.
+They are particularly useful when working with datasets that contain categorical variables
+that cannot be directly fed into a model, such as in a neural network or decision tree.
+The transformers provided here offer flexibility and customization options for encoding
+categorical data. They also handle missing data and outliers by providing options to replace
+them with a specific value or ignore them altogether.
+Some of the key features of this class of transformers are:
+    including those that are encoded as strings, integers, or floats.
+    encoding, label encoding, and hash encoding, to suit their specific needs.
+    specific value or ignoring them altogether.
+    specific value.
+The transformers provided here are:
+    on their order in the dataset.
+These transformers are designed to be flexible and customizable, allowing users to tailor their encoding
+scheme to suit their specific needs. They also handle missing data and outliers, making them a robust
+choice for handling categorical data.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -16952,59 +16637,57 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Implementation of the OPTICS algorithm for density-based clustering.
+          <t>OPTICS (Ordering Points To Identify the Clustering Structure) algorithm.
     Parameters
     ----------
         The minimum number of samples required to form a dense region.
-        Can be an integer in [2, ∞) or a real number in [0, 1).
-        The maximum distance between samples and their respective neighbors for
-        forming clusters. Must be a real number.
-        The metric used to compute the distances between points in the dataset.
-        Possible options are 'minkowski' (with the value of p set by parameter `p`),
-        'precomputed', and any other metric from sklearn.metrics.pairwise.
-        The order of the Minkowski distance. Must be an integer in [1, ∞) or a
-        real number in [1, ∞).
-        Additional parameters to be passed to the `metric` function.
-        The algorithm used for clustering:
-        The maximum distance between samples for forming clusters when using
-        the DBSCAN algorithm. Must be a real number in [0, ∞] or None.
-        A scaling factor used in X-means++ algorithm for forming clusters when
-        using the X-means++ algorithm with OPTICS.
-        Enables or disables correction for the predecessor variable.
-        The minimum size of a dense region that will be assigned a cluster label.
-        Can be an integer in [2, ∞) or a real number in [0, 1).
-        The algorithm used for building the OPTICS graph:
-              calculations.
-              calculations.
-        The maximum number of points in each leaf node when using a KD-tree or Ball Tree algorithm for acceleration.
-        Specifies the memory usage and caching strategy:
-            - A string describing a suitable memory resource.
-            - An object with `HasMethods('cache')` methods for cache management.
-            - None to disable caching.
-        Controls the parallel processing of computations. Can be an integer
-        representing the number of CPU cores or None to use all available CPU cores.
+        It has an interval constraint between 2 and infinity, allowing for both integer and float values.
+        The maximum distance between points that can be considered part of the same density cluster.
+        It has an interval constraint between 0 and infinity, allowing for both integer and float values.
+        The metric used to calculate distances between points.
+        Options are 'minkowski' and callable functions. If not provided, it defaults to 'minkowski'.
+        The exponent in the Minkowski distance formula.
+        It has an interval constraint between 1 and infinity, allowing for both integer and float values.
+        Parameters for the metric used to calculate distances.
+        If not provided, it defaults to None.
+        The method used to cluster points based on their reachability and density values.
+        Options are 'xi' (X-means) or 'dbscan'.
+        The maximum distance between points that can be considered part of the same density cluster when using the DBSCAN algorithm.
+        If not provided, it defaults to None.
+        The threshold for X-means clustering.
+        It has an interval constraint between 0 and 1, allowing for both integer and float values.
+        Whether to correct the predecessor value.
+        The minimum size of clusters.
+        If not provided, it defaults to None.
+        The algorithm used to compute reachability distances.
+        Options are 'auto', 'brute', 'ball_tree', and 'kd_tree'.
+        The number of points in the ball tree or k-d tree.
+        The type of memory to use for caching results.
+        If not provided, it defaults to None.
+        The number of jobs to run in parallel.
+        If not provided, it defaults to None.
+    Attributes
+    ----------
+        The ordering of points by density-based cluster labeling.
+        The reachability distances between points and their cores.
+        The reachability distances between points.
+        The predecessors of each point in the clustering hierarchy.
+    Methods
+    -------
+    fit(X, y=None)
+        Fit the model to the training data.
+    See Also
+    --------
+"""
+"""
+    Fit the model to the training data.
+    Parameters
+    ----------
+        The training data.
+        There is no need to specify y for this algorithm.
     Returns
     -------
-    self
-    Notes
-    -----
-    The OPTICS algorithm is a density-based clustering algorithm that can handle
-    varying densities and noise in the data.
-    The parameters are thoroughly documented, making it easy to understand the
-    constraints and default values for each parameter.
-    This class has several methods that can be analyzed from the perspective of
-    returns:
-          in Python where the method modifies the object's state and returns it for
-          chaining or further processing.
-    Exceptions
-    ----------
-    - Raises a ValueError if the specified epsilon is greater than the maximum allowed epsilon.
-    - Triggers warnings when necessary, such as when converting data to boolean for a specific metric.
-    - Warns when sparse matrices are used with certain algorithms.
-    - Warns when invalid values are provided for parameters.
-    See Also
-    --------
-    sklearn.cluster.AgglomerativeClustering</t>
+        Fitted estimator.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -17661,36 +17344,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ordinal Encoder
-==============
-Encodes categorical features into numerical values while preserving ordinal structure.
-Parameters
-----------
-*   `handle_unknown`: An optional parameter defining how unknown categories should be handled:
-    *   `'error'` raises an error when encountering an unknown category.
-    *   `'use_encoded_value'` replaces the missing value with a specific encoded value, which must not overlap with any other seen category's value in the 'categories' list.
-Constructor Method
-------------------
-The constructor method (`__init__`) initializes an instance of the OrdinalEncoder class. It includes default values for some parameters to ensure consistency.
-Fit Method
-----------
-The fit method is used to fit the encoder to the input data. Validation checks several parameters:
-Transform Method
------------------
-The transform method encodes categorical features into numerical values. It checks if the encoder is fitted and raises an error otherwise.
-Inverse Transform Method
------------------------
-The inverse transform method converts the encoded data back to its original form. It checks if the encoder is fitted and raises an error otherwise.
-Returns
--------
-Raises
-------
-Examples
---------
-&gt;&gt;&gt; from sklearn.preprocessing import OrdinalEncoder
-&gt;&gt;&gt; encoder = OrdinalEncoder()
-&gt;&gt;&gt; X = [[1, 2], [3, 4]]
-&gt;&gt;&gt; encoded_X = encoder.fit_transform(X)</t>
+          <t>"""
+OrdinalEncoder class functionality
+=====================================
+The OrdinalEncoder class uses the following algorithms:
+    including the categories, data types, and other settings.
+    values, calculates the frequencies of each category, and determines the encoding scheme.
+    values.
+    values back into categorical values.
+"""</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -17862,45 +17524,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>"""Pooling1D class implementation for 1D pooling operations.
-This layer applies a pooling operation to each spatial location in an input along the last axis (axis 2 if `data_format='channels_last'`, and axis 3 otherwise).
+          <t>The Pooling1D class implements a 1D pooling layer in Keras. It applies a specified pooling function to the input tensor.
 Parameters
 ----------
-    The function used for pooling. Defaults to None.
-    The size of the pooling window. Defaults to None.
-    The stride of the pooling layer. If provided, it should be a tuple or list of integers with the same length as the pool_size. Defaults to None.
-    The padding mode used for convolution. Can be either 'valid', 'same', or a string representing a custom padding configuration. Defaults to 'valid'.
-    The data format used in the layer. Can be either 'channels_first' or 'channels_last'. Defaults to None, which means it will be set to the default value depending on the backend.
-    The name of the layer. Defaults to None.
+    The function used for pooling. This is a required argument and should be a valid Keras backend pooling function.
+    The size of the pool. This is a required argument and represents the dimensions of the output after applying the pooling operation.
+    The stride used for convolutional layers. If not specified, it will be set to equal the pool size.
+    The data format used for the pool. If not specified, it will default to the backend's image data format.
+    The name of the layer.
 Returns
 -------
-The output tensor after applying the pooling operation, which is the result of applying the pool function to the input tensor along the last dimension (axis 2 if `data_format='channels_last'`, and axis 3 otherwise).
+The output tensor after applying the pooling operation.
 Raises
 ------
-None explicitly; however, some potential issues could lead to errors:
-    If the input shape has an incorrect dimensionality (e.g., less than 2 for channels_last), the `compute_output_shape` method might return an invalid output shape.
-    If the user provides an invalid value for the `pool_function`, the pooling operation will fail.
 Notes
 -----
-The code does not explicitly yield any values. However, in the context of TensorFlow or Keras, returning values can be used to implement lazy evaluation or asynchronous computation.
-"""
-    """Pooling1D layer implementation."""
-        super(Pooling1D, self).__init__(name=name, **kwargs)
-            data_format = backend.image_data_format()
-            strides = pool_size
-        """Apply the pooling operation to the input tensor."""
-        pad_axis = 2 if self.data_format == 'channels_last' else 3
-        inputs = array_ops.expand_dims(inputs, pad_axis)
-        outputs = self.pool_function(inputs, self.pool_size + (1,), strides=self.strides + (1,), padding=self.padding, data_format=self.data_format)
-        """Compute the output shape of the pooling layer."""
-        input_shape = tensor_shape.TensorShape(input_shape).as_list()
-            steps = input_shape[2]
-            features = input_shape[1]
-        else:
-            steps = input_shape[1]
-            features = input_shape[2]
-        length = conv_utils.conv_output_length(steps, self.pool_size[0], self.padding, self.strides[0])
-        else:</t>
+This class provides a basic implementation of 1D pooling in a convolutional neural network. It takes care of input normalization, validation, and output computation while providing flexibility in terms of pool size, strides, padding, and data format.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -18091,14 +17730,36 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>"""
-Pooling2D Layer Class
----------------------
-A class representing a 2D pooling layer.
-    Parameters:
-    Returns:
-    Yields:
-        None</t>
+          <t>The `Pooling2D` class applies a pooling operation to the input data.
+**Parameters**
+*   `pool_function`: A required parameter that specifies the type of pooling operation to apply. It can be one of the following:
+    *   `conv_utils.MAXPooling2D`
+    *   `conv_utils.AveragePooling2D`
+    *   A custom pooling function
+**Parameter Constraints**
+*   The `pool_size` and `strides` parameters should both be tuples of two integers.
+*   The `padding` parameter can only take values 'valid' or 'same'.
+*   The `data_format` parameter can only take valid values based on the backend's image data format.
+**Parameter Defaults**
+*   If `data_format` is not provided, it defaults to the backend's image data format.
+*   If `strides` is not provided, it defaults to `pool_size`.
+**Returns**
+The class returns a tensor containing the pooled output. The shape of this tensor depends on the data format (channels_last or channels_first) and the pooling operation applied.
+**Functionality**
+The `Pooling2D` class applies the specified pooling operation to the input data and returns the pooled output. The `call` method is responsible for this operation.
+**Exceptions**
+The class does not explicitly raise any exceptions, but it may raise exceptions during argument validation or when applying the pooling operation.
+**Example Usage**
+```python
+pooling = Pooling2D(pool_function='max', pool_size=(3, 3), strides=(1, 1))
+input_tensor = np.random.rand(32, 224, 224, 3)  # Example input tensor
+output_tensor = pooling.call(input_tensor)
+```
+**Notes**
+*   The `pool_function` parameter should be a valid Keras backend function.
+*   The `conv_utils.normalize_tuple`, `conv_utils.normalize_padding`, and `conv_utils.normalize_data_format` functions may throw exceptions if their input arguments are invalid. It's essential to catch these exceptions and provide meaningful error messages.
+**Method Implementation**
+The class has the following methods:</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -18302,27 +17963,26 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>This class defines a custom Keras layer called `Pooling3D`, which implements a 3D convolutional pooling operation.
-**Parameters**
-**Returns**
-*   The `call` method returns a tensor representing the output of the pooling operation.
-*   The `compute_output_shape` method returns a tensor representing the shape of the output tensor after applying the pooling operation.
-**Yields**
-There are no explicit yield statements in this code, but it does return tensors as output from the `call` and `compute_output_shape` methods.
-**Exceptions**
-The layer does not explicitly raise any exceptions, but it assumes that the input data has a specific shape and structure. If the input data has an invalid shape or format, the layer may produce incorrect results or raise implicit errors.
-**Functionality Analysis**
-The `Pooling3D` layer performs the following operations:
-1.  Initializes the layer's parameters, including the pooling function, pool size, strides, padding, and data format.
-2.  Transposes the input data if the specified data format is 'channels_first'.
-3.  Applies the specified pooling function to the transposed input data.
-4.  Transposes the output data if the specified data format is 'channels_first'.
-The `compute_output_shape` method calculates the shape of the output tensor based on the input shape and the layer's parameters.
-**Exception Analysis**
-**Additional Suggestions**
-1.  Consider adding input validation to ensure that the `pool_function`, `data_format`, and other arguments are valid.
-2.  Use `functools.wraps` to preserve metadata when overriding the `get_config` method.
-3.  Consider adding a check for invalid pool size values.</t>
+          <t>A custom 3D convolutional layer that performs spatial pooling on input data.
+The Pooling3D class inherits from the base Layer class and provides the following functionalities:
+Parameters
+----------
+    A function that takes in the input tensor and returns the output tensor. Defaults to max_pooling3d.
+    The size of the pool. Defaults to (1, 1, 1).
+    The stride of the convolution operation. Defaults to None.
+    The padding mode. Can be 'valid', 'same' or an integer representing the number of zeros added on each side. Defaults to 'valid'.
+    The data format for the pooling operation. Can be either 'channels_first' or 'channels_last'. Defaults to 'channels_last'.
+    Name of the layer (optional).
+    Additional keyword arguments.
+Returns
+-------
+The output tensor with the specified pooling window and stride applied.
+Raises
+-----
+Note
+----
+This class provides a well-structured and documented implementation of a 3D pooling layer, which can be used as part of a larger deep learning model. The code does not explicitly raise any custom exceptions, but it relies on the exception handling of the TensorFlow backend.
+"""</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -18652,25 +18312,49 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Principal Component Analysis (PCA) Implementation
-Parameters
-----------
-    The number of principal components to retain. If `None`, all features are kept.
-    The algorithm used for PCA. Can be either 'eigen' or 'svd'.
-    Whether the transformation should be whitened.
-Attributes
-----------
-    The projection matrix from the original feature space to the principal component space.
-    The normalized eigenvalues.
-    The loadings matrix.
-Methods
--------
-fit(X[, y])
-    Fits the model to the training data X.
-transform(X)
-    Applies the PCA transformation to a new dataset X.
-Notes
------</t>
+          <t>Principal Component Analysis (PCA) class.
+    Parameters
+    ----------
+        Number of components to retain. If None, all features are kept.
+        Method used for computing eigenvectors and eigenvalues. Defaults to 'svd'.
+        Flag indicating whether to apply standardization (whitening) after projection.
+    Attributes
+    ----------
+        Eigenvalues of the covariance matrix.
+        Eigenvectors of the covariance matrix.
+        Transformation weights for projecting data onto lower-dimensional space.
+    Methods
+    -------
+    fit(X, y=None)
+        Fitting method. Compute principal components from the input data X.
+    transform(X)
+        Apply transformation to new data using learned model parameters.
+    Private Methods
+    ---------------
+    _covariance_matrix(X)
+        Compute covariance matrix of input data X.
+    _decomposition(mat, n_samples)
+        Decompose input matrix into eigenvectors and eigenvalues.
+    _loadings()
+        Compute loadings (weights) for each principal component.
+    _projection_matrix(eig_vals, eig_vecs, whitening, n_components)
+        Compute transformation weights for projecting data onto lower-dimensional space.
+    Raises
+    ------
+    AttributeError
+        Raised when invalid arguments are provided or default values are inconsistent.
+    Returns
+    -------
+        Fitted model object after calling fit(X).
+        Transformed data in the new coordinate system after calling transform(X).
+    Notes
+    -----
+    This class implements PCA, a dimensionality reduction technique. The PCA model aims to reduce the number of features in a dataset while retaining most of the information.
+    Examples
+    --------
+    &gt;&gt;&gt; from sklearn.decomposition import PrincipalComponentAnalysis
+    &gt;&gt;&gt; pca = PrincipalComponentAnalysis(n_components=2)
+    &gt;&gt;&gt; X_reduced = pca.fit_transform(X)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -19096,66 +18780,40 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>"""
-        Creates slots for the model's parameters.
-        Args:
-        """
-        """
-        Prepares the local variables for the optimization algorithm.
-        Args:
-        """
-        super(RMSprop, self)._prepare_local(var_device, var_dtype, apply_state)
-        rho = array_ops.identity(self._get_hyper('rho', var_dtype))
-        apply_state[var_device, var_dtype].update(dict(neg_lr_t=-apply_state[var_device, var_dtype]['lr_t'], epsilon=tensor_conversion.convert_to_tensor_v2_with_dispatch(self.epsilon, var_dtype), rho=rho, momentum=array_ops.identity(self._get_hyper('momentum', var_dtype)), one_minus_rho=1.0 - rho))
-        """
-        Applies the RMSProp update rule to the model's parameters.
-        Args:
-        """
-        var_device, var_dtype = (var.device, var.dtype.base_dtype)
-        coefficients = (apply_state or {}).get((var_device, var_dtype)) or self._fallback_apply_state(var_device, var_dtype)
-        rms = self.get_slot(var, 'rms')
-            mom = self.get_slot(var, 'momentum')
-                mg = self.get_slot(var, 'mg')
-            else:
-        else:
-            rms_t = coefficients['rho'] * rms + coefficients['one_minus_rho'] * math_ops.square(grad)
-            rms_t = state_ops.assign(rms, rms_t, use_locking=self._use_locking)
-            denom_t = rms_t
-                mg = self.get_slot(var, 'mg')
-                mg_t = coefficients['rho'] * mg + coefficients['one_minus_rho'] * grad
-                mg_t = state_ops.assign(mg, mg_t, use_locking=self._use_locking)
-                denom_t = rms_t - math_ops.square(mg_t)
-            var_t = var - coefficients['lr_t'] * grad / (math_ops.sqrt(denom_t) + coefficients['epsilon'])
-        """
-        Applies the RMSProp update rule to sparse variables.
-        Args:
-        """
-        var_device, var_dtype = (var.device, var.dtype.base_dtype)
-        coefficients = (apply_state or {}).get((var_device, var_dtype)) or self._fallback_apply_state(var_device, var_dtype)
-        rms = self.get_slot(var, 'rms')
-            mom = self.get_slot(var, 'momentum')
-                mg = self.get_slot(var, 'mg')
-            else:
-        else:
-            rms_scaled_g_values = grad * grad * coefficients['one_minus_rho']
-            rms_t = state_ops.assign(rms, rms * coefficients['rho'], use_locking=self._use_locking)
-                rms_t = self._resource_scatter_add(rms, indices, rms_scaled_g_values)
-                rms_slice = array_ops.gather(rms_t, indices)
-            denom_slice = rms_slice
-                mg = self.get_slot(var, 'mg')
-                mg_scaled_g_values = grad * coefficients['one_minus_rho']
-                mg_t = state_ops.assign(mg, mg * coefficients['rho'], use_locking=self._use_locking)
-                    mg_t = self._resource_scatter_add(mg, indices, mg_scaled_g_values)
-                    mg_slice = array_ops.gather(mg_t, indices)
-                    denom_slice = rms_slice - math_ops.square(mg_slice)
-            var_update = self._resource_scatter_add(var, indices, coefficients['neg_lr_t'] * grad / (math_ops.sqrt(denom_slice) + coefficients['epsilon']))
-        """
-        Sets the model's parameters.
-        Args:
-        """
-        params = self.weights
-            weights = [np.array(0)] + weights
-        super(RMSprop, self).set_weights(weights)</t>
+          <t>The RMSprop optimizer.
+    It adapts the learning rate for each parameter based on the magnitude of its gradient.
+    Args:
+            If a tuple is provided it should contain `momentum` and `nesterov` as separate entries.
+                (should be between 0 and 1. Default value is 0.9.
+                Defaults to False.
+                    (RMSprop with momentum) which keeps a running average of the squared gradients.
+            *   If `True`, uses the centered version.
+                Defaults to False.
+    Example:
+        ```python
+        # Create an instance of RMSprop with default settings
+        optimizer = RMSprop()
+        # Set learning rate to 0.01
+        optimizer.learning_rate = 0.01
+        # Set decay factor to 0.95
+        optimizer.rho = 0.95
+        # Use centered update rule
+        optimizer.centered = True
+        ```
+    Attributes:
+            *   Whether momentum is used for this optimizer.
+            *   The small value to avoid division by zero in the update rule.
+            *   Learning rate value (or schedule).
+            *   Decay factor.
+            If a tuple is provided it should contain `momentum` and `nesterov`
+            as separate entries.
+                Default value is 0.9.
+                Defaults to False.
+            *   Whether to use the centered version of the RMSProp algorithm
+                (RMSprop with momentum) which keeps a running average of the squared gradients.
+    Methods:
+        _prepare_local(self, var_device, var_dtype, apply_state):
+            Prepare local optimizer state including the negation of global learning rate.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -19894,41 +19552,159 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SelfTrainingClassifier
-======================
-This class implements a Self-Training Classifier, which is a type of meta-estimator that learns from its own predictions.
-Parameters
-----------
-    The estimator to use for self-training. Can be None or an instance that implements fit(), predict_proba(), decision_function(), and score().
-    The base estimator to use for self-training. If 'deprecated', a deprecation warning is raised.
-    The threshold value for selecting new labels.
-    The criterion to use for deciding which samples are labeled. Can be either 'threshold' or 'k_best'.
-    The number of best performing samples to consider when labeling new data.
-    The maximum number of iterations to perform.
-    A flag to enable verbose output.
-Attributes
-----------
-    The cloned estimator object.
-    A copy of the labeled samples.
-    The iteration number for each labeled sample.
-    The total number of iterations performed.
-    A string indicating the termination condition (e.g., 'no_change', 'max_iter', 'all_labeled').
-Returns
--------
-Raises
-------
-ValueError
-    Raised when no estimator is provided and the base estimator is set to 'deprecated', or if multiple estimators are provided.
-FutureWarning
-    Warns for deprecated parameters or methods.
-UserWarning
-    Warns for unlabeled samples or deprecation warnings.
-See Also
---------
-ClassifierMixin, MetaEstimatorMixin
-Notes
------
-This class implements a Self-Training Classifier, which is a type of meta-estimator that learns from its own predictions. It performs self-training until all samples are labeled or a maximum number of iterations is reached.</t>
+          <t>"""
+    A SelfTrainingClassifier performs self-training using the provided base estimator.
+    It iteratively refits the base estimator to a new set of labeled data until convergence or until a maximum number of iterations is reached.
+    The self-trained model can then be used for predictions, probability estimates, and scoring.
+    This class provides a simple implementation of self-training for machine learning models,
+    which can improve the model's performance on unseen data.
+    Parameters
+    ----------
+        The estimator to use for self-training. Defaults to None.
+        The base estimator to use if no estimator is provided. Defaults to 'deprecated'.
+        The threshold used when criterion='threshold'. Defaults to 0.75.
+        The criterion used to select the best samples. Can be either 'threshold' or 'k_best'. Defaults to 'threshold'.
+        The number of top-scoring samples to use if criterion='k_best'. Defaults to 10.
+        The maximum number of iterations. If None, will run until all data points are labeled. Defaults to None.
+        Whether or not to print out the number of new labels added at each iteration. Defaults to False.
+    Attributes
+    ----------
+        The estimator used for self-training.
+        The transduced labels.
+        The iteration at which each sample was labeled.
+        The current number of iterations.
+        The reason why training stopped.
+    Methods
+    -------
+    Notes
+    -----
+    This class uses a combination of the base estimator's decision function values and the provided labels to select the best samples at each iteration.
+    The selection criterion can be either 'threshold', in which case the top-scoring samples above a certain threshold are selected,
+    or 'k_best', in which case the top k scoring samples are selected.
+    The maximum number of iterations can be set using the `max_iter` parameter. If this is not provided, training will run until all data points are labeled.
+    """
+        """
+        Initialize the SelfTrainingClassifier.
+        Parameters
+        ----------
+            The estimator to use for self-training.
+            The base estimator to use if no estimator is provided.
+            The threshold used when criterion='threshold'.
+            The criterion used to select the best samples.
+            The number of top-scoring samples to use if criterion='k_best'.
+            The maximum number of iterations. If None, will run until all data points are labeled.
+            Whether or not to print out the number of new labels added at each iteration.
+        Notes
+        -----
+        See the class documentation for more information on these parameters.
+        """
+        """
+        Get the estimator to use for self-training.
+        Returns
+        -------
+            The estimator used for self-training.
+        """
+            estimator_ = clone(self.base_estimator)
+            warn('`base_estimator` has been deprecated in 1.6 and will be removed in 1.8. Please use `estimator` instead.', FutureWarning)
+        elif self.estimator is None and self.base_estimator == 'deprecated':
+            raise ValueError('You must pass an estimator to SelfTrainingClassifier. Use `estimator`.')
+        elif self.estimator is not None and self.base_estimator != 'deprecated':
+            raise ValueError('You must pass only one estimator to SelfTrainingClassifier. Use `estimator`.')
+        else:
+            estimator_ = clone(self.estimator)
+    @_fit_context(prefer_skip_nested_validation=False)
+        """
+        Fit the model to the given data.
+        Parameters
+        ----------
+            The training data.
+            The target values.
+        Returns
+        -------
+            The fitted estimator.
+        """
+        _raise_for_params(params, self, 'fit')
+        X, y = validate_data(self, X, y, accept_sparse=['csr', 'csc', 'lil', 'dok'], ensure_all_finite=False)
+            raise ValueError('y has dtype string. If you wish to predict on string targets, use dtype object, and use -1 as the label for unlabeled samples.')
+        has_label = y != -1
+            warnings.warn('y contains no unlabeled samples', UserWarning)
+            warnings.warn('k_best is larger than the amount of unlabeled samples. All unlabeled samples will be labeled in the first iteration', UserWarning)
+            routed_params = process_routing(self, 'fit', **params)
+        else:
+            routed_params = Bunch(estimator=Bunch(fit={}))
+                break
+        """
+        Perform one iteration of the algorithm.
+        Parameters
+        ----------
+            The training data.
+            The target values.
+            The routed parameters.
+            Whether or not the sample has been labeled.
+        Returns
+        -------
+        None
+        """
+            scores = self.estimator_.decision_function(X)
+            new_has_label = np.zeros_like(has_label, dtype=bool)
+            new_has_label[scores &gt; self.threshold] = True
+        elif self.criterion == 'k_best':
+            scores = self.estimator_.decision_function(X)
+            new_has_label = np.zeros_like(has_label, dtype=bool)
+            new_has_label[indices] = True
+        has_label |= ~np.all(self.transduction_ == -1, axis=0)
+            print(f'Added {np.sum(~has_label)} new labels at iteration {self.n_iter_+1}.')
+        """
+        Predict the labels for the given data using the trained model.
+        Parameters
+        ----------
+            The test data.
+        Returns
+        -------
+            The predicted labels.
+        """
+            scores = self.estimator_.decision_function(X)
+        elif self.criterion == 'k_best':
+            scores = self.estimator_.decision_function(X)
+        else:
+            raise ValueError('Invalid criterion.')
+        """
+        Predict the probabilities of each class for the given data using the trained model.
+        Parameters
+        ----------
+            The test data.
+        Returns
+        -------
+            The predicted probabilities.
+        """
+            scores = self.estimator_.decision_function(X)
+        elif self.criterion == 'k_best':
+            scores = self.estimator_.decision_function(X)
+        else:
+            raise ValueError('Invalid criterion.')
+        """
+        Compute decision function values for samples in X.
+        Parameters
+        ----------
+            The test data.
+        Returns
+        -------
+            The decision function values.
+        """
+        """
+        Predict the logarithm of the probability of each class for the given data using the trained model.
+        Parameters
+        ----------
+            The test data.
+        Returns
+        -------
+            The predicted logarithmic probabilities.
+        """
+            scores = self.estimator_.decision_function(X)
+        elif self.criterion == 'k_best':
+            scores = self.estimator_.decision_function(X)
+        else:
+            raise ValueError('Invalid criterion.')</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -20187,15 +19963,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A separable convolutional neural network layer.
-    Args:
-    Returns:
-        If `build` method is called:
-            - weight tensors representing the depthwise kernel and pointwise kernel
-            - a bias term if `use_bias` is True
-    Raises:
-    Notes:
-        This class currently lacks implementation for the actual convolutional operation.</t>
+          <t>super(SeparableConv, self).__init__(rank=rank, filters=filters, kernel_size=kernel_size, strides=strides, padding=padding, data_format=data_format, dilation_rate=dilation_rate, activation=activations.get(activation), use_bias=use_bias, bias_initializer=initializers.get(bias_initializer), bias_regularizer=regularizers.get(bias_regularizer), activity_regularizer=regularizers.get(activity_regularizer), bias_constraint=bias_constraint, trainable=trainable, name=name, **kwargs)
+        """
+        Builds the layer's weights and biases.
+        Parameters
+        ----------
+            The shape of the input tensor.
+        """
+        input_shape = tensor_shape.TensorShape(input_shape)
+        channel_axis = self._get_channel_axis()
+            raise ValueError('The channel dimension of the inputs should be defined. Found `None`.')
+        input_dim = int(input_shape[channel_axis])
+        depthwise_kernel_shape = self.kernel_size + (input_dim, self.depth_multiplier)
+        pointwise_kernel_shape = (1,) * self.rank + (self.depth_multiplier * input_dim, self.filters)
+        else:
+        """
+        Performs the forward pass of the layer.
+        Parameters
+        ----------
+            The input tensor.
+        """
+        raise NotImplementedError</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -20473,18 +20261,23 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>This class defines a separable convolutional layer with one-dimensional kernels.
-Parameters:
---------------------
-Returns:
-----------
-The call method returns a single tensor output with the same shape as the input tensor but with additional dimensions added in various places (e.g., spatial start dimension).
-Types:
-------
-Raises:
-------
-See Also:
----------</t>
+          <t>"""
+    A separable convolutional neural network (CNN) layer for 1D inputs.
+    This class extends the `SeparableConv` class and performs a depthwise convolution followed by a point-wise convolution.
+    The input data is padded according to the specified padding type, then expanded to match the spatial dimensions expected for the separable convolution operation.
+    Finally, the outputs from both convolutions are combined by adding their bias terms.
+    *   The output of the convolutional layer if no activation function is specified.
+    *   The output of the activation function applied to the convolutional layer output if an activation function is specified.
+    *   `InvalidArgumentError` from TensorFlow when an invalid argument is passed to a TensorFlow operation.
+    *   `ValueError` when an invalid value is used in the code (e.g., negative strides or dilation rates).
+    *   This class relies on TensorFlow's error handling mechanisms to propagate and handle any errors that may occur during computation.
+    *   The padding type can be either 'valid' or 'causal'. If 'causal', the input is padded with causal padding. Otherwise, it uses the specified padding mode.
+    """
+        """
+        Initializes the separable convolutional layer.
+        Args:
+        """
+        super(SeparableConv1D, self).__init__(rank=1, filters=filters, kernel_size=kernel_size, strides=strides, padding=padding, data_format=data_format, dilation_rate=dilation_rate, depth_multiplier=depth_multiplier, activation=activations.get(activation), use_bias=use_bias, depthwise_initializer=initializers.get(depthwise_initializer), pointwise_initializer=initializers.get(pointwise_initializer), bias_initializer=initializers.get(bias_initializer), depthwise_regularizer=regularizers.get(depthwise_regularizer), pointwise_regularizer=regularizers.get(pointwise_regularizer), bias_regularizer=regularizers.get(bias_regularizer), activity_regularizer=regularizers.get(activity_regularizer), depthwise_constraint=constraints.get(depthwise_constraint), pointwise_constraint=constraints.get(pointwise_constraint), bias_constraint=constraints.get(bias_constraint), **kwargs)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -20741,20 +20534,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>This class represents a separable convolutional neural network layer.
-    A separable convolution operation is a type of convolution operation where depthwise and pointwise convolutions are performed separately.
-    The output of the depthwise convolution is then passed through a pointwise convolution. This can significantly reduce the number
-    of parameters in the model compared to regular convolution operations while still maintaining performance.
-    Returns
-    -------
-    A tensor representing the output of the separable convolution operation. If an activation function is specified,
-    the output will be passed through this function.
-    Note
-    ----
-    This class inherits from `SeparableConv` and uses PyTorch's `nn.separable_conv2d` function for the convolution operation.
-    The layer applies a depthwise and pointwise convolution separately before adding them together with an optional activation function.
-    Raises
-    ------</t>
+          <t>Custom implementation of the separable convolutional neural network (CNN) layer.
+    Parameters:
+    Returns:
+    Note:
+        It uses PyTorch's built-in functions for separable convolutions and bias addition.
+        The 'call' method applies the separable convolution using nn.separable_conv2d function from PyTorch, then adds bias if use_bias is True and activation is set.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -22036,25 +21821,41 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>.. 
-Sequential Feature Selector for Recursive Feature Elimination.
+          <t>Sequential Feature Selection (SFS) and Sequential Recursive Feature Elimination (SRE) are feature selection methods that recursively remove features or add them to a model until a stopping criterion is met.
 Parameters
 ----------
-    The estimator is used in the calculation of a feature's importance.
-    Controls verbosity when searching for features. -1 means quiet (default), 1 means verbose with iteration logs, and &gt;1 means verbose with additional info at each logging step.
-    The number of CPUs to use to do the computation. The algorithm uses one CPU per feature in the case where ``n_jobs`` is None which is the default.
-    Determines random number generation for feature selection. Use integer random state to reproduce the same sequence of numbers.
-    This can be either an integer representing the number of features to select or one of "auto", “sqrt”, “log2”. If none of these options is given then the default is the square root of the number of features.
+        Training set.
+        Target values.
+        Group labels for input data (X). If not None, all samples in each group are used together for computing scores and fit.
+        Feature group indices for features. If not None, the order of feature selection will be determined by these groups.
+        Number of top ranking features to select.
+        -   If ``{'best', 'parsimonious'}``, the best subset (top-ranking subset) or the most parsimonious subset is selected.
+        -   If an integer or tuple of two integers is provided, it specifies a fixed number of features. If forward=True and the specified number of features is greater than the original number of features to include, only the top ranking subsets that have a larger number of features to include are considered.
+        Controls verbosity:
+            -   When ``verbose = 1``, it prints the progress of feature selection.
+            -   When ``verbose &gt; 1`` , it also prints each subset selected during the search process for forward mode and floating mode.
+            -   If `False`, no output is printed.
+        Specifies how many tasks to dispatch at once. It can be either an integer, which specifies the number of jobs, or a string of the form 'n_to_block*n_to_schedule'.
+        If ``True``, performs SFS (Sequential Feature Selection).
+        If ``False`` and if ``k_features`` is int or tuple, it performs SRE (Sequential Recursive Feature Elimination) from 1 to the specified number of top-ranking features. If it is a string ('best' or 'parsimonious'), it performs forward selection for the best or most parsimonious subset.
+        If ``True``, uses floating mode (also known as stepwise regression), where one feature is added at each iteration in addition to the features of the current subset. It can be used with SFS and SRE.
+        Additional fit parameters for estimators.
 Attributes
 ----------
+*   `n_features_in_`
+    Number of features seen during ``fit``.
+*   `k_feature_names_`
+    List of feature names corresponding to the selected features in the order they appear in the array.
+*   `subsets_`
+    Dictionary containing all subsets found and their average cross-validation scores.
 Methods
 -------
-*   `fit(X, y)` - Fit the Sequential Feature Selector on the training data.
-*   `transform(X)` - Apply feature selection to transform X into X_reduced.
-Notes
------
-The scoring method is based on cross-validation, which means that the best subset of features found will be the one with the highest average score across all folds in the cross-validation procedure.
-For further information about supported methods for estimating feature importances, please refer to the documentation of the estimator parameter.</t>
+*   `transform(X)`
+        Applies feature selection to ``X`` and returns a new array with only the selected features. It uses the best subset according to the k_features parameter.
+*   `fit_transform(X, y= None, groups=None) -&gt; X_filtered`
+        Fits model on X and y and returns a new array with only the selected features.
+*   `get_metric_dict(confidence_interval=0.95)`
+        Returns dictionary containing information about each subset found during cross-validation, such as its average score, standard deviation of scores, and confidence interval of its mean score.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -22331,41 +22132,31 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>"""
-Class representing a Stochastic Gradient Descent (SGD) optimizer.
-The SGD class is an instance of the OptimizerV2 base class and implements
-the stochastic gradient descent algorithm for optimizing model variables.
-**Parameters Analysis**
-This section of the code defines and validates the parameters of the `SGD` class.
-It includes:
-    These parameters define the optimizer's hyperparameters and are used during
-    initialization.
-    the valid range of [0, 1] for a float and raises an error if it's outside this
-    range. It also validates that the momentum parameter can be either a tensor or
-    a callable.
-**Returns Analysis**
-The `SGD` class returns various values through its methods and attributes.
-These include:
-    and configuration settings for the optimizer.
-    argument which is expected to be a dictionary-like object. These functions return
-    the updated `apply_state` with new values for momentum or learning rate if required.
-**Exceptions Analysis**
-The `SGD` class raises several exceptions and handles edge cases:
-    range [0, 1] using an `if` statement. If it's not, a `ValueError` exception is raised.
-    that the `SGD` class does not handle unsupported data types for `learning_rate`, `decay`,
-    and `momentum`. If these arguments are provided with unsupported data types (e.g., non-numeric values),
-    a runtime error may occur when trying to access or manipulate these hyperparameters.
-**Functionality Analysis**
-The SGD optimizer implementation is well-structured and follows good practices.
-It provides an effective algorithm for updating model variables in non-convex optimization problems.
-The `SGD` class defines the following methods:
-The `SGD` class also defines the following attributes:
-**Code**
-```python
-    _HAS_AGGREGATE_GRAD = True
-        super(SGD, self).__init__(name, **kwargs)
-        # ...
-        config = super(SGD, self).get_config()</t>
+          <t>Stochastic Gradient Descent Optimizer.
+This optimizer uses stochastic gradient descent to update model parameters during training. It supports both dense and sparse variables, as well as optional Nesterov acceleration.
+Parameters
+----------
+Returns
+-------
+The SGD class provides the following return values:
+Functionality
+------------
+The `SGD` class implements the SGD optimization algorithm with optional Nesterov acceleration. Here's a high-level overview of its functionality:
+Exceptions
+----------
+The class raises the following exceptions:
+Edge Cases
+------------
+Some edge cases to consider:
+Algorithm
+---------
+The `SGD` class uses the following algorithm:
+1.  Initialize the local state of the optimization process by setting the momentum value.
+2.  Apply the gradient to each variable using the SGD update rule with optional Nesterov acceleration.
+3.  Update the variables based on the applied gradients and the momentum value.
+The `SGD` class is designed to be flexible, allowing users to control the learning rate, momentum, and nesterov flags to suit their specific optimization needs.
+"""
+"""</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -22689,27 +22480,236 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Softmax Regression Classification Model
-This class provides an implementation of a Softmax Regression classification model, which can be used for multi-class classification problems.
+          <t>"""
+The SoftmaxRegression class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
 Parameters
 ----------
-The model uses stochastic gradient descent (SGD) for optimization and is designed to handle multi-class classification problems with L2 regularization. The `_fit` method iteratively trains the model on minibatches of data, updating the weights and biases using SGD.
-Methods
---------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+    Number of classes in the dataset. If not provided, it will be estimated from the target array.
+    Random seed for initialization and random number generation.
 Returns
 -------
-* The trained model instance itself is returned by the `_fit` method.
-* Predicted labels are returned by the `_predict` method.
-* Predicted probabilities are returned by the `predict_proba` method.
-Raises
-------
-* If an invalid random seed or minibatches value is provided, a ValueError is raised in the `_fit` method.
-* If the input data has zero shape, an error is raised in the `_net_input` method.
-* If the output of the softmax function contains NaN or Infinity values, they are set to 0 in the `_softmax_activation` method.
-* If the cross-entropy loss calculation produces NaN or Infinity values, they are set to 0 in the `_cross_entropy` method.
-Note
-----
-This implementation provides a basic Softmax Regression classification model and is intended for educational purposes. In practice, you may want to use more robust and efficient optimization algorithms, such as stochastic gradient descent with momentum or Adam.</t>
+The class SoftmaxRegression has several methods that return different types of values.
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""The SoftmaxRegression class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+    Number of classes in the dataset. If not provided, it will be estimated from the target array.
+    Random seed for initialization and random number generation.
+Returns
+-------
+The class SoftmaxRegression has several methods that return different types of values.
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+    Number of classes in the dataset. If not provided, it will be estimated from the target array.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""
+"""Softmax Regression Model
+    This class implements a multi-class classification model using stochastic gradient descent with L2 regularization.
+Parameters
+----------
+    Learning rate for stochastic gradient descent.
+    Number of training epochs.
+    L2 regularization parameter.
+    Number of mini-batches to use for training.
+Returns
+-------
+1.  predict_proba(X):
+2. _predict(self, X):
+3.  _fit(X, y, init_params=True):
+Note:
+This implementation assumes that the input data X has shape (n_samples, n_features) and the target array y has shape (n_samples,) with n_classes being the maximum label value plus one. If not provided, the number of classes will be estimated from the target array.
+"""</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -23422,97 +23422,37 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>"""
-        Initialize the TargetEncoder.
-        Parameters
-        ----------
-            List of unique categories to encode.
-            Type of the target variable.
-            Smoothing factor for encoding. If set to 'auto', an auto-smooth function is used.
-            Number of cross-validation folds. If a single integer value is provided, it will be split into multiple ranges of equal size.
-            Whether to shuffle the data before splitting.
-            Seed for reproducibility.
-        """
-        """
-        Fit the TargetEncoder.
-        Parameters
-        ----------
-            Input features.
-            Target variable.
-        Returns
-        -------
-            Fitted encoder.
-        """
-        """
-        Fit the TargetEncoder and transform the input data.
-        Parameters
-        ----------
-            Input features.
-            Target variable.
-        Returns
-        -------
-            Transformed input data.
-        """
-        """
-        Transform the input data using the fitted TargetEncoder.
-        Parameters
-        ----------
-            Input features.
-        Returns
-        -------
-            Transformed input data.
-        """
-        """
-        Fit the TargetEncoder and compute the encodings for each feature.
-        Parameters
-        ----------
-            Input features.
-            Target variable.
-        Returns
-        -------
-            Ordinal input data.
-            Mask for known values in the ordinal input data.
-            Target variable.
-            Number of categories for each feature.
-        """
-        """
-        Fit the TargetEncoder for binary or continuous targets.
-        Parameters
-        ----------
-            Ordinal input data.
-            Target variable.
-            Number of categories for each feature.
-            Mean value for the target variable.
-        """
-        """
-        Fit the TargetEncoder for multiclass targets.
-        Parameters
-        ----------
-            Ordinal input data.
-            Target variable.
-            Number of categories for each feature.
-            Mean value for the target variable.
-        """
-        """
-        Transform the ordinal input data using the computed encodings.
-        Parameters
-        ----------
-            Transformed output data.
-            Ordinal input data.
-            Mask for unknown values in the ordinal input data.
-            Indices of rows to transform.
-            Computed encodings for each feature.
-            Mean value for the target variable.
-        """
-        """
-        Get the feature names for the transformed output data.
-        Parameters
-        ----------
-            Feature names in the input data.
-        Returns
-        -------
-            Feature names for the transformed output data.
-        """</t>
+          <t>Encodes categorical data into numerical values using one-hot encoding.
+Parameters
+----------
+            List of categories for each feature. If 'auto', uses all unique values from training set.
+              Type of target variable. If 'auto', infers type based on data.
+         Method to smooth the encoding. If 'auto', uses auto-smoothing for binary targets and manual smoothing for multiclass/multilabel targets. Manual smoothing is specified as an interval (start, end] or a float.
+     Number of folds for cross-validation when fitting the encoder.
+         Whether to shuffle the data before splitting it into training and test sets.
+               Pseudo-random number generator to control the shuffling.
+Attributes
+----------
+           The classes for multiclass targets.
+             The one-hot encoded values for each sample.
+               The mean target value for the fitted data. This attribute is only set if there are multiple features in the dataset.
+Methods
+-------
+fit(X, y)         Fit the encoder to the training data.
+fit_transform(X, y) Fit the encoder to the training data and transform the data using one-hot encoding.
+transform(X)      Transform new data into numerical values using one-hot encoding.
+See also
+--------
+OneHotEncoder
+Examples
+--------
+&gt;&gt;&gt; from sklearn.compose import ColumnTransformer
+&gt;&gt;&gt; from sklearn.pipeline import Pipeline
+&gt;&gt;&gt; from sklearn.preprocessing import StandardScaler, OneHotEncoder
+&gt;&gt;&gt; y_train = np.array([1.0, 2.0])
+&gt;&gt;&gt; onehot_encoder = ColumnTransformer(transformers=[('onehot', OneHotEncoder(), 'cat1 cat2')], remainder='passthrough')
+&gt;&gt;&gt; pipeline = Pipeline(steps=[('preprocessor', onehot_encoder), ('scaler', StandardScaler())])
+&gt;&gt;&gt; pipeline.fit_transform(X_train, y_train)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -23787,41 +23727,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TransactionEncoder is a transformer that encodes transactions into binary vectors.
+          <t>TransactionEncoder class.
+This class is designed to encode categorical variables in a dataset into numerical values.
 Parameters
 ----------
-Returns
+    Input data to the fit and transform methods. In fit, it contains all transactions,
+    and in transform, it can contain sparse or dense transaction data.
+    A flag indicating whether the input data is sparse (i.e., not all values are present).
+    If set to True, the algorithm uses CSR matrix storage for efficient computation.
+Attributes
+----------
+    The sorted list of unique items in the transactions. This attribute is generated by the fit method and is used in the transform and inverse_transform methods.
+    The mapping of each unique item to its corresponding column index.
+Methods
 -------
-*   The instance itself after calling `fit`.
-*   The transformed data as a sparse matrix or dense boolean array when called with `transform`.
-*   A list of lists containing original feature names when called with `inverse_transform`.
-Functionality
--------------
-The TransactionEncoder class transforms a dataset of transactions into a matrix where each column represents a feature and each element in the column represents whether or not the feature is present in the corresponding transaction. The fit method computes the set of unique features across all transactions, while the transform method creates the transformed matrix.
-The inverse_transform method reverses this process by mapping indices to original feature names based on their positions in the transformed dataset.
-Examples
---------
-```python
-# Initialize the encoder
-encoder = TransactionEncoder()
-# Fit the encoder to some data
-data = [[1, 2], [2, 3], [3, 4]]
-encoded_data = encoder.fit(data)
-# Transform the data using the fitted encoder
-transformed_data = encoded_data.transform([[1, 2], [2, 3]])
-```
-Note that this implementation is based on the scikit-learn library and follows its API conventions.
-API
----
-    +   Parameters:
-    +   Parameters:
-    +   Parameters:
-See Also
---------
-Notes
------
-The TransactionEncoder class is designed to handle transactions represented as binary vectors, where each feature (or item) corresponds to a column index in the transformed matrix. The `fit` method computes the set of unique features across all transactions and stores them in the instance's attributes. The `transform` method uses this information to create the transformed matrix.
-The implementation follows the scikit-learn API conventions, making it easy to integrate with other libraries and frameworks that rely on scikit-learn for data preprocessing and feature engineering.</t>
+    Fits the encoder to the input data X. Returns the instance itself.
+    Transforms the input data X into a numerical representation. Returns an array of boolean values indicating the presence of items in each transaction.
+    Inverts the transformation by returning a list of lists containing the original feature names for each row in the input array.
+    Convenience function that calls both fit and transform in sequence. Returns an array of boolean values indicating the presence of items in each transaction.
+    Returns a list of feature names for the encoded data.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -23954,27 +23878,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>The UpSampling1D class is a Keras layer implementation for 1D up-sampling.
-Parameters
-----------
-Returns
--------
-*   A new tensor shape that represents the output of the layer after applying the up-sampling.
-Functionality
-------------
-The UpSampling1D class uses the backend.repeat_elements method to repeat each input element along axis 1, achieving the up-sampling effect.
-Usage Example
--------------
-```python
-up_sampling_layer = UpSampling1D(size=2)
-input_array = np.random.rand(32, 128, 128, 3)
-output_array = up_sampling_layer.call(input_array)
-```
-Raises
-------
-Notes
------
-The UpSampling1D class can be used as a Keras layer to up-sample 3D arrays (typically representing images) in the first dimension. The algorithm used for up-sampling is straightforward and based on repeating each input element along axis 1.</t>
+          <t>A Keras layer for one-dimensional up-sampling.
+This class performs one-dimensional up-sampling on input data by duplicating each batch element a specified number of times.
+The primary purpose of this class is to perform one-dimensional up-sampling on input data. Here's an analysis of the returns aspect:
+*   **Return Types**: The methods in this class return objects with different types:
+The `UpSampling1D` class is designed to implement a 1D up-sampling layer in a deep learning model. Here's an analysis of the code from a functionality perspective:
+### Parameters
+*   The `__init__` method takes two parameters:
+### Returns
+*   The `compute_output_shape` method takes the input shape and returns the output shape of the up-sampling operation.
+*   The `call` method applies the up-sampling operation to the input data.
+*   The `get_config` method returns a dictionary containing the configuration for the layer, including the `size`.
+### Functionality
+The up-sampling operation is performed using the `backend.repeat_elements` function, which repeats elements in each dimension of the input tensor. In this case, the `axis=1` argument specifies that we want to repeat along the second dimension (i.e., the height dimension).
+To improve error handling and robustness:
+1. Add input validation to the `__init__` method to ensure valid size values.
+2. Implement input shape validation using a separate check before calling `compute_output_shape`.
+3. Consider adding try-except blocks to handle any unexpected exceptions or errors raised by Keras or other dependencies.
+By addressing these potential edge cases and improving error handling, the UpSampling1D axis can become more robust and reliable.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -24176,27 +24097,28 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A class for 2D up-sampling in deep learning models.
-The `UpSampling2D` class represents a 2D up-sampling layer that can be used to increase the spatial dimensions of input data in a convolutional neural network (CNN). It inherits from the `Layer` class and provides functionality for computing the output shape, applying the up-sampling operation, and serializing the configuration.
+          <t>The UpSampling2D class performs 2D upscaling on input tensors.
+This class is designed to upscale images while maintaining their aspect ratio and original pixel values. It uses the specified interpolation method to perform the upsampling, which can be either nearest neighbor or bilinear interpolation.
 Parameters
 ----------
+    A tuple representing the up-sampling size.
+    The data format to use for the convolutional operation. It must be one of 'channels_last' or 'channels_first'.
+    The interpolation method to use for the up-sampling. It can be either 'nearest' or 'bilinear'.
 Returns
 -------
-The `UpSampling2D` class returns tensors with dimensions adjusted according to the specified up-sampling parameters. Specifically:
-    *   The `compute_output_shape` method determines the output shape based on the input shape and the chosen data format.
-    *   The `call` method applies the up-sampling operation to the input tensor using the `resize_images` function from the backend.
-    *   The `get_config` method returns a dictionary containing configuration details.
-Functionality
-------------
-The `UpSampling2D` class defines the following functionality:
-Exceptions
+A tensor with the upsampled input shape.
+Raises
+------
+ValueError
+    If the interpolation argument is not one of 'nearest' or 'bilinear'.
+Input Shape
 ----------
-The `UpSampling2D` class raises exceptions in the following cases:
-Best Practices and Recommendations
----------------------------------
-*   Implement additional input validation for `data_format`, `input_shape`, and other parameters to ensure correct behavior.
-*   Handle potential division by zero errors by checking the values of `input_shape` variables before performing calculations.
-Note: The docstring follows PEP 257 standards, which include a description of the class, its methods, and any relevant details about usage or implementation. It also provides information on how to use the class and what exceptions it may raise.</t>
+Output Shape
+-------------
+    where new_height and new_width are calculated based on the specified up-sampling size.
+Config
+------
+A dictionary containing the layer's configuration. It includes the up-sampling size, data format, and interpolation method used in the UpSampling2D class.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -24367,48 +24289,34 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>The UpSampling3D class is a Keras layer designed to perform 3D up-sampling on input data.
+          <t>The UpSampling3D class is a Keras layer implementation that performs 3D upsampling on input data.
 Parameters
 ----------
-    Size of the up-sampled volume. Defaults to (2, 2, 2).
-    Data format, one of 'channels_last' or 'channels_first'. Defaults to None.
-    If `None`, it will be determined from the input data.
-Raises
-------
-ValueError
-    If the size tuple does not contain three integers greater than zero,
 Returns
 -------
-Tensor with the output shape.
-The output shape depends on whether `data_format` is 'channels_first' or not. If `data_format` is 'channels_first', the output shape has the form `[batch_size, height, width, channels1, channels2]`. Otherwise, it has the form `[batch_size, channels1, height, width, channels2]`.
-The value of the returned tensor depends on the input data.
-The `call` method uses `backend.resize_volumes` to compute the up-sampled volume.
-Configuration
--------------
-Config items include:
-Example usage
--------------
+    *   Sets instance variables (`self.data_format`, `self.size`, and `self.input_spec`) which can be used to compute output shapes or perform other computations in the future.
+    *   Returns a `TensorShape` object representing the shape of the output tensor.
+    *   Takes an input `inputs` and returns the resized input volumes after applying the up-sampling operation.
+    *   Contains key-value pairs for the `size` and `data_format` attributes of the layer.
+Exception Handling
+-----------------
+This class does not explicitly raise any exceptions; however, it relies on external libraries like TensorFlow (which uses the backend) and assumes they do not throw errors for the provided inputs. If the `data_format` is neither 'channels_first' nor 'channels_last', an exception might be raised later in the code due to incompatible data format usage.
+Usage
+-----
+This class can be used as a Keras layer to perform 3D upsampling on input data.
+Examples
+--------
 ```python
-# Create an instance of UpSampling3D
-upsampling = keras.layers.UpSampling3D(size=(2, 2, 2), data_format='channels_last')
-# Define input shape
-input_shape = (None, 224, 224, 224, 3)
-# Compute output shape
-output_shape = upsampling.compute_output_shape(input_shape)
-# Create random input tensor with the specified input shape
-inputs = np.random.rand(1, input_shape[0], input_shape[1], input_shape[2], input_shape[3])
-# Call the UpSampling3D instance and get the output
-output = upsampling(inputs)
-# Create configuration dictionary
-config = upsampling.get_config()
+# Create an instance of the UpSampling3D class with default parameters.
+upsample_layer = UpSampling3D()
+# Use the upsample_layer in a Keras model.
+model = Sequential()
+model.add(upsample_layer)
 ```
-Functionality
--------------
-The `UpSampling3D` class is a Keras layer designed to perform 3D up-sampling on input data. The functionality of this class can be broken down into several key aspects:
-Exceptions
-----------
-The provided code defines a class `UpSampling3D` that inherits from `Layer`. The axis of analysis for exceptions is focused on the following aspects:
-By addressing these potential edge cases and error scenarios, the code can become more robust and better equipped to handle unexpected inputs or situations.</t>
+Notes
+-----
+*   The `compute_output_shape` method uses a consistent approach for both 'channels_first' and 'channels_last' data formats.
+*   The `call` method relies on an external function (`backend.resize_volumes`) to perform the actual upsampling, which makes sense given Keras's modular architecture.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -24562,42 +24470,28 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Here is the final docstring:
-"""
-A layer that adds zeros to the beginning or end of a 3D input tensor.
-This layer adds padding to both spatial (height/width) and temporal dimensions.
-It can be used for various purposes such as image classification, segmentation,
-and object detection where the input data needs to have a fixed length.
-Parameters
-----------
-Returns
--------
-The `ZeroPadding1D` layer has four methods:
-### __init__
-    Initializes the layer's attributes, including the padding value.
-### compute_output_shape
-    Calculates the output shape of the input tensor based on the provided padding values.
-### call
-    Applies zero padding to the input tensor using the `backend.temporal_padding` function.
-### get_config
-    Generates a dictionary containing the layer's configuration, including the padding value.
-Raises
------
-The `ZeroPadding1D` class raises exceptions for invalid inputs:
-*   If the input shape has a length less than the specified padding size(s).
-*   If the input shape does not have a specified length.
-*   If the temporal padding function is unable to handle batches with different lengths while maintaining consistency.
-Example
--------
-```python
-# Create an instance of the ZeroPadding1D layer
-layer = ZeroPadding1D(padding=(2, 3))
-# Use the layer in a model
-model = Sequential()
-model.add(layer)
-model.compile(optimizer='adam', loss='categorical_crossentropy')
-```
-Note: This docstring follows PEP 257 standards and provides detailed documentation for the `ZeroPadding1D` class. It includes descriptions of parameters, return values, exceptions raised, and examples of usage.</t>
+          <t>"""
+        Initializes a new instance of ZeroPadding1D.
+                       These are passed through to the parent's `__init__` method.
+        """
+        super(ZeroPadding1D, self).__init__(**kwargs)
+        # Normalize and validate the padding value(s)
+        # Specify input shape expectation
+        """
+        Computes the output shape of this layer based on the input shape and padding values.
+                 If the length dimension is not specified in the input shape,
+                 it will be set to None.
+        """
+            # Add padding to the original sequence length (input_shape[1])
+            length = input_shape[1] + self.padding[0] + self.padding[1]
+        else:
+            # If the length dimension is unknown, keep it as None
+            length = None
+        """
+        Applies temporal zero-padding to the input data along the time axis.
+                       This can be a single tensor or multiple tensors stacked along the batch dimension.
+                 If multiple tensors were input, this returns a tuple of padded tensors.
+        """</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -24871,38 +24765,20 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>"""
-    Initializes the ZeroPadding2D layer with optional parameters.
-    Parameters
-    ----------
-        Specifies the amount of padding to add.
-        Specifies the data format to use for zero-padding.
-        Additional keyword arguments passed to the parent class (Layer).
-    """
-    super(ZeroPadding2D, self).__init__(**kwargs)
-    ...
-"""
-    Computes the output shape of the zero-padded image based on the input shape and padding amount.
-    Parameters
-    ----------
-        The shape of the input data.
-    Returns
-    -------
-    tensor_shape.TensorShape
-        The output shape of the zero-padded image.
-    """
-    ...
-"""
-    Applies zero padding to the input images using the backend.spatial_2d_padding function.
-    Parameters
-    ----------
-        The input data to be padded.
-    Returns
-    -------
-    tensor
-        The padded image tensor.
-    """
-    ...</t>
+          <t>The ZeroPadding2D layer applies zero-padding to the input tensor.
+Parameters
+----------
+*   **padding**: The padding value can be:
+Returns
+-------
+The padded tensor itself, which is computed using the backend.spatial_2d_padding function. The output shape of the padded tensor is calculated based on the input shape and the specified padding value.
+Functionality
+------------
+*   This layer adds zero-padding to the beginning or end of an image (or any other 3D tensor) in Keras.
+*   It handles different types of padding values and data formats, making it a useful component in neural network architectures.
+Exceptions
+----------
+This class raises exceptions for invalid input parameters:</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -25179,38 +25055,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>The ZeroPadding3D layer adds zero padding to input data in 3D.
-**Parameters**
-    *   Defaults to `(1, 1, 1)` if `data_format` is `'channels_first'`
-    *   Defaults to an integer value if `data_format` is not specified
-    *   Defaults to `None`
-**Parameter Validation**
-The code performs the following parameter validation:
-*   Checks if the length of the `padding` tuple is 3, and raises a `ValueError` if it's not.
-*   Normalizes the padding values using `conv_utils.normalize_tuple()` to ensure they are within the range `[0, 1]`.
-*   Checks if the `data_format` string is valid, and raises a `ValueError` if it's not.
-**Parameter Defaults**
-The code uses default values for some of its parameters:
-*   If `data_format` is not specified, the `padding` defaults to `(1, 1, 1)`.
-*   If `data_format` is `'channels_first'`, the `padding` defaults to an integer value.
-**Parameter Inheritance**
-The code inherits default parameters from its parent class using `super()`. The inherited parameters are included in the final configuration dictionary returned by `get_config()`.
-**Functionality**
-The primary functionality of this layer can be summarized as follows:
-- It takes an input tensor with shape `(batch_size, channels, height, width, depth)` and applies zero padding along the last two dimensions (depth and/or width).
-- The padding value is specified by the `padding` argument, which can be either an integer or a tuple of three integers.
-- If `'channels_first'` data format is used, it adds zero padding along the first two dimensions (height and/or width). Otherwise, it adds zero padding along the last two dimensions.
-**Return Values**
-The `ZeroPadding3D` layer has several return values:
-*   The result of applying zero padding to the input tensor.
-*   A Keras shape object representing the output tensor's shape.
-*   The configuration dictionary containing the padding and data format used for the layer.
-**Raises**
-This layer raises a `ValueError` if the `padding` argument is invalid, or if the length of the `padding` tuple is not equal to 3. It also raises a `TypeError` when trying to access an attribute or method on a non-object reference.
-**Edges Cases**
-The code handles several edge cases:
-**Suggestions**
-Consider adding more documentation to explain how the padding is applied in each dimension. The `compute_output_shape` method could be simplified by using a dictionary to map the dimensions to their corresponding indices.</t>
+          <t>This class represents a Keras layer that adds zero padding to input tensors in 3D space.
+Parameters
+----------
+    The amount of padding to add to each dimension. If an integer, it's automatically normalized to a tuple with values (1, 1, 1). If a tuple, it must have exactly three elements.
+    The data format to use when computing the output shape. It can be either 'channels_first' or 'channels_last'.
+Returns
+-------
+A padded tensor with the same data type as the input tensor.
+Functionality
+------------
+This layer adds zero padding to each dimension of the input tensor according to the specified `padding` value.
+It also determines the output shape based on the input shape, padding values, and data format.
+Raises
+------
+Examples
+--------
+    layer = ZeroPadding3D(padding=(1, 1, 1), data_format='channels_first')
+    output_shape = layer.compute_output_shape((input_shape,))
+    padded_tensor = layer.call(inputs)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -25869,23 +25732,145 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>**Class Documentation**
-   :members:
-**Module Documentation**
-The LabelEncoder encodes target labels into numbers.
-This class has been moved to the `preprocessing` module of scikit-learn 0.18, and is now known as `LabelEncoder`. 
-Here is some sample code demonstrating its usage:
-.. sourcecode:: 
-    # Assuming "df" is a DataFrame with a column named 'Category'
-    le = preprocessing.LabelEncoder()
-    # Fit the label encoder on the data
-    le.fit(df['Category'])
-    # Transform the encoded labels back into their original category values
-    categories = ['Cat', 'Dog', 'Bird']
-        print(le.inverse_transform([i]))
-.. seealso::
-**Class Reference**
-The `LabelEncoder` class provides the following methods:</t>
+          <t># Initialize the class with no attributes
+        pass
+    @property
+        """
+        A list of tuples containing the unique category values for each feature.
+        Each tuple represents a categorical feature, where the first element is the unique values and the second element
+        contains the count of occurrences for each value.
+        """
+    @property
+        """
+        A list of lists containing the index of infrequent categories for each feature.
+        Each inner list represents a categorical feature, where the elements are the indices of infrequent categories.
+        If no infrequent categories exist for a feature, the corresponding element is None.
+        """
+        """
+        Check if infrequent category handling is enabled.
+        This method checks the presence of 'max_categories' or 'min_frequency' attributes to determine whether
+        infrequent category handling should be enabled. If both are set, only 'min_frequency' is used.
+        """
+        max_categories = getattr(self, 'max_categories', None)
+        min_frequency = getattr(self, 'min_frequency', None)
+        """
+        Identify infrequent categories for a feature.
+        This method identifies the indices of infrequent categories based on the count of occurrences and the presence
+        of 'max_categories' or 'min_frequency' attributes.
+        """
+            infrequent_mask = category_count &lt; self.min_frequency
+        elif isinstance(self.min_frequency, numbers.Real):
+            min_frequency_abs = n_samples * self.min_frequency
+            infrequent_mask = category_count &lt; min_frequency_abs
+        else:
+            infrequent_mask = np.zeros(category_count.shape[0], dtype=bool)
+        n_current_features = category_count.size - infrequent_mask.sum() + 1
+        """
+        Fit the mapping for infrequent categories.
+        This method fits a mapping from infrequent to frequent categories based on the count of occurrences and
+        the presence of 'max_categories' or 'min_frequency' attributes.
+        """
+            category_counts_ = []
+                    category_counts_.append(np.delete(count, missing_indices[feature_idx]))
+                else:
+                    category_counts_.append(count)
+        else:
+            category_counts_ = category_counts
+            cats = self.categories_[feature_idx]
+                continue
+            n_cats = len(cats)
+                n_cats -= 1
+            mapping = np.empty(n_cats, dtype=np.int64)
+            n_infrequent_cats = infreq_idx.size
+            n_frequent_cats = n_cats - n_infrequent_cats
+            mapping[infreq_idx] = n_frequent_cats
+            frequent_indices = np.setdiff1d(np.arange(n_cats), infreq_idx)
+            mapping[frequent_indices] = np.arange(n_frequent_cats)
+        """
+        Map infrequent categories in the input data.
+        This method maps infrequent categories to frequent categories based on the fitted mapping.
+        """
+            return
+        ignore_category_indices = ignore_category_indices or {}
+            infrequent_idx = self._infrequent_indices[col_idx]
+                continue
+                continue
+            else:
+                rows_to_update = slice(None)
+            X_int[rows_to_update, i] = np.take(mapping, X_int[rows_to_update, i])
+        """
+        Fit the preprocessor to the input data.
+        Parameters
+        ----------
+            The input dataset.
+            How to handle unknown categories in the input data. If set to 'error', an error is raised if any unknown
+            categories are found. If set to 'new_category', a new category with the same value as the first known
+            category is added to the list of categories for each feature. If set to 'infrequent_if_exist', infrequent
+            categories in the input data are mapped to frequent categories based on the fitted mapping.
+            Whether to check if all values in the input data are finite (i.e., not NaN or infinity).
+            Whether to include the count of occurrences for each category in the output. If True, a list of arrays
+            containing the counts is returned.
+            Whether to ignore missing categories for infrequent features when mapping categories.
+        Returns
+        -------
+            A dictionary with information about the preprocessed data. If return_counts is True, a list of arrays
+            containing the counts is returned.
+        """
+        X_list, n_samples, n_features = self._check_X(X, force_all_finite=force_all_finite)
+        category_counts = []
+        compute_counts = return_counts or self._infrequent_enabled
+            Xi = X_list[i]
+                result = _unique(Xi, return_counts=compute_counts)
+                    cats, counts = result
+                    category_counts.append(counts)
+                else:
+                    cats = result
+            else:
+                    Xi_dtype = object
+                else:
+                    Xi_dtype = Xi.dtype
+                cats = np.array(self.categories[i], dtype=Xi_dtype)
+                    msg = f"In column {i}, the predefined categories have type 'bytes' which is incompatible with values of type '{type(Xi[0]).__name__}'."
+                    raise ValueError(msg)
+                        raise ValueError(f'Nan should be the last element in user provided categories, see categories {cats} in column #{i}')
+                    msg = f'In column {i}, the predefined categories contain duplicate elements.'
+                    raise ValueError(msg)
+                    sorted_cats = np.sort(cats)
+                    error_msg = 'Unsorted categories are not supported for numerical categories'
+                    stop_idx = -1 if np.isnan(sorted_cats[-1]) else None
+                        raise ValueError(error_msg)
+                    diff = _check_unknown(Xi, cats)
+                        msg = 'Found unknown categories {0} in column {1} during fit'.format(diff, i)
+                        raise ValueError(msg)
+                    category_counts.append(_get_counts(Xi, cats))
+            output['category_counts'] = category_counts
+        missing_indices = {}
+                    missing_indices[feature_idx] = categories_for_idx.size - 1
+            output['missing_indices'] = missing_indices
+        """
+        Transform the input data.
+        Parameters
+        ----------
+            The input dataset.
+        Returns
+        -------
+            The transformed data.
+        """
+        # Check if the preprocessor is fitted
+            raise ValueError("Preprocessor has not been fitted yet.")
+        X_list, n_samples, n_features = self._check_X(X, force_all_finite=True)
+        # Map infrequent categories in the input data
+        """
+        Check if the number of features matches the number of categories.
+        Parameters
+        ----------
+            The input dataset.
+            Whether to reset the value of 'n_features_in_' attribute.
+        Returns
+        -------
+        None
+        """
+            raise ValueError("Number of features does not match.")</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
